--- a/data/SeaGrant-TA_DIC-MassBayData/ToRies_Labprocessed2020and2021_sharedSeaGlass.xlsx
+++ b/data/SeaGrant-TA_DIC-MassBayData/ToRies_Labprocessed2020and2021_sharedSeaGlass.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15110" windowHeight="7720" activeTab="1"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="4" r:id="rId1"/>
@@ -647,12 +646,6 @@
     <t>HAR_surface_07-08-21_04Aug21</t>
   </si>
   <si>
-    <t>NFal_bottom1_06-16-21_04Aug21</t>
-  </si>
-  <si>
-    <t>NFal_bottom2_06-16-21_04Aug21</t>
-  </si>
-  <si>
     <t>N01_s_06-23-21_05Aug21</t>
   </si>
   <si>
@@ -942,6 +935,12 @@
   </si>
   <si>
     <t>W-AR</t>
+  </si>
+  <si>
+    <t>NFal_bottom1_06-18-21_04Aug21</t>
+  </si>
+  <si>
+    <t>NFal_bottom2_06-18-21_04Aug21</t>
   </si>
 </sst>
 </file>
@@ -954,8 +953,8 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#0.0"/>
     <numFmt numFmtId="168" formatCode="#0.000"/>
-    <numFmt numFmtId="170" formatCode="#0.00"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="#0.00"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1099,7 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1166,7 +1165,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1193,11 +1192,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,9 +1518,6 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1526,106 +1525,106 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1637,15 +1636,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R76" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R102" sqref="R102"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.7265625" style="2"/>
+    <col min="1" max="1" width="12.7265625" style="2"/>
+    <col min="2" max="3" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="17" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7265625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" style="2"/>
+    <col min="20" max="20" width="17.90625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="12.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18" x14ac:dyDescent="0.5">
@@ -1780,7 +1787,7 @@
         <v>104</v>
       </c>
       <c r="AS1" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -3990,85 +3997,85 @@
         <v>0.45827874541282698</v>
       </c>
       <c r="R19" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="S19" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="T19" s="21">
-        <v>44358</v>
+        <v>44370</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>29.47</v>
       </c>
       <c r="V19" s="22">
-        <v>24.16</v>
+        <v>32.1697998046875</v>
       </c>
       <c r="W19" s="23">
-        <v>26.794</v>
+        <v>32.160666666666671</v>
       </c>
       <c r="X19">
-        <v>25.100999999999999</v>
+        <v>25.294001000000002</v>
       </c>
       <c r="Y19" s="30">
-        <v>19.399999999999999</v>
+        <v>8.1846790313720703</v>
       </c>
       <c r="Z19">
-        <v>11</v>
+        <v>39.47</v>
       </c>
       <c r="AA19">
-        <v>1873.4572333427143</v>
+        <v>2183.6031032828091</v>
       </c>
       <c r="AB19">
-        <v>1855.2648878674406</v>
-      </c>
-      <c r="AC19" s="25">
-        <v>19.399999618530273</v>
-      </c>
-      <c r="AD19" s="24">
-        <v>11</v>
-      </c>
-      <c r="AE19" s="25">
-        <v>7.5045182123233669</v>
-      </c>
-      <c r="AF19" s="24">
-        <v>1370.6663413930294</v>
-      </c>
-      <c r="AG19" s="24">
-        <v>1375.3659457781243</v>
-      </c>
-      <c r="AH19" s="24">
-        <v>1763.1961482314523</v>
-      </c>
-      <c r="AI19" s="24">
-        <v>44.841500950016638</v>
-      </c>
-      <c r="AJ19" s="24">
-        <v>47.227234306947707</v>
-      </c>
-      <c r="AK19" s="24">
-        <v>19.600642074643666</v>
-      </c>
-      <c r="AL19" s="24">
-        <v>1.0093347814294578</v>
-      </c>
-      <c r="AM19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="25">
-        <v>17.579127651198117</v>
-      </c>
-      <c r="AP19" s="26">
-        <v>1.1321325679826402</v>
-      </c>
-      <c r="AQ19" s="26">
-        <v>0.71765513579823703</v>
-      </c>
-      <c r="AR19" s="24">
-        <v>1406.1505043887346</v>
+        <v>2055.5910127430511</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>8.1846790313720703</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>39.470001220703125</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>7.9569520789171122</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>471.49532578752837</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>473.3612055725938</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>1932.9904720275365</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>100.24731458037751</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>22.353185696430369</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>49.072037620239563</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>1.0572225295708615</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>14.516879292248841</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>2.4096014423223453</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>1.5202709154198415</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>478.39583234496706</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
@@ -4124,67 +4131,68 @@
         <v>0.82893210649490401</v>
       </c>
       <c r="R20" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="S20" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="T20" s="21">
-        <v>44358</v>
+        <v>44370</v>
       </c>
       <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20" s="22">
-        <v>24.16</v>
-      </c>
-      <c r="W20" s="23">
-        <v>26.827333333333332</v>
+        <f>Z20-10</f>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="V20" s="31">
+        <v>31.7198886871338</v>
+      </c>
+      <c r="W20">
+        <v>31.760666666666669</v>
       </c>
       <c r="X20">
-        <v>25.124001</v>
-      </c>
-      <c r="Y20" s="30">
-        <v>19.399999999999999</v>
+        <v>25.289000000000001</v>
+      </c>
+      <c r="Y20" s="31">
+        <v>13.081823348999</v>
       </c>
       <c r="Z20">
-        <v>11</v>
+        <v>23.28</v>
       </c>
       <c r="AA20">
-        <v>1856.1368118843377</v>
+        <v>2152.0159191722832</v>
       </c>
       <c r="AB20">
-        <v>1851.4811654395796</v>
+        <v>1975.7129230434448</v>
       </c>
       <c r="AC20" s="25">
-        <v>19.399999618530273</v>
+        <v>13.081823348999023</v>
       </c>
       <c r="AD20" s="24">
-        <v>11</v>
+        <v>23.280000686645508</v>
       </c>
       <c r="AE20" s="25">
-        <v>7.4510182219626708</v>
+        <v>8.0095539413630874</v>
       </c>
       <c r="AF20" s="24">
-        <v>1546.029592053023</v>
+        <v>414.22874298289776</v>
       </c>
       <c r="AG20" s="24">
-        <v>1551.3304645052601</v>
+        <v>415.76720099545378</v>
       </c>
       <c r="AH20" s="24">
-        <v>1758.6421580703379</v>
+        <v>1828.3107705433094</v>
       </c>
       <c r="AI20" s="24">
-        <v>39.579146538820069</v>
+        <v>130.63672299554401</v>
       </c>
       <c r="AJ20" s="24">
-        <v>53.259848089239625</v>
+        <v>16.765338524583115</v>
       </c>
       <c r="AK20" s="24">
-        <v>17.479485384090523</v>
+        <v>60.498541592721999</v>
       </c>
       <c r="AL20" s="24">
-        <v>0.89298538824510354</v>
+        <v>1.9431324444587539</v>
       </c>
       <c r="AM20" s="24">
         <v>0</v>
@@ -4193,16 +4201,16 @@
         <v>0</v>
       </c>
       <c r="AO20" s="25">
-        <v>17.539776243230676</v>
+        <v>12.387366718752114</v>
       </c>
       <c r="AP20" s="26">
-        <v>0.99905263176500081</v>
+        <v>3.1626858011002237</v>
       </c>
       <c r="AQ20" s="26">
-        <v>0.63338351787635461</v>
+        <v>2.0102924841912229</v>
       </c>
       <c r="AR20" s="24">
-        <v>1586.0529602890679</v>
+        <v>421.92339449143753</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
@@ -4258,67 +4266,68 @@
         <v>0.79469287395477295</v>
       </c>
       <c r="R21" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="S21" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="T21" s="21">
-        <v>44358</v>
+        <v>44370</v>
       </c>
       <c r="U21">
-        <v>3</v>
-      </c>
-      <c r="V21" s="22">
-        <v>24.03</v>
-      </c>
-      <c r="W21" s="27">
-        <v>26.594000000000005</v>
+        <f>Z21-10</f>
+        <v>1.6300000000000008</v>
+      </c>
+      <c r="V21" s="31">
+        <v>31.3679504394531</v>
+      </c>
+      <c r="W21">
+        <v>31.460666666666668</v>
       </c>
       <c r="X21">
-        <v>24.603000999999999</v>
-      </c>
-      <c r="Y21" s="30">
-        <v>19.399999999999999</v>
+        <v>25.224001000000001</v>
+      </c>
+      <c r="Y21" s="31">
+        <v>16.5427341461182</v>
       </c>
       <c r="Z21">
-        <v>13</v>
+        <v>11.63</v>
       </c>
       <c r="AA21">
-        <v>1849.0125252994944</v>
+        <v>2122.6727976182938</v>
       </c>
       <c r="AB21">
-        <v>1850.3521514893309</v>
+        <v>1922.5081743769219</v>
       </c>
       <c r="AC21" s="25">
-        <v>19.399999618530273</v>
+        <v>16.542734146118164</v>
       </c>
       <c r="AD21" s="24">
-        <v>13</v>
+        <v>11.630000114440918</v>
       </c>
       <c r="AE21" s="25">
-        <v>7.4296821694680517</v>
+        <v>8.0165376763254237</v>
       </c>
       <c r="AF21" s="24">
-        <v>1624.3796506136898</v>
+        <v>403.95213437510131</v>
       </c>
       <c r="AG21" s="24">
-        <v>1629.9491619517482</v>
+        <v>405.38776743383102</v>
       </c>
       <c r="AH21" s="24">
-        <v>1756.9208071167004</v>
+        <v>1761.2558718666012</v>
       </c>
       <c r="AI21" s="24">
-        <v>37.401406927034493</v>
+        <v>146.51603242093643</v>
       </c>
       <c r="AJ21" s="24">
-        <v>56.029942863585141</v>
+        <v>14.73633173326586</v>
       </c>
       <c r="AK21" s="24">
-        <v>16.480783784283247</v>
+        <v>65.646394178907542</v>
       </c>
       <c r="AL21" s="24">
-        <v>0.84606365252014859</v>
+        <v>2.7482266793220984</v>
       </c>
       <c r="AM21" s="24">
         <v>0</v>
@@ -4327,16 +4336,16 @@
         <v>0</v>
       </c>
       <c r="AO21" s="25">
-        <v>17.506913297402132</v>
+        <v>11.469652224107364</v>
       </c>
       <c r="AP21" s="26">
-        <v>0.94523288509602266</v>
+        <v>3.5718602487616717</v>
       </c>
       <c r="AQ21" s="26">
-        <v>0.59869420105413129</v>
+        <v>2.2850474222206545</v>
       </c>
       <c r="AR21" s="24">
-        <v>1666.4360674779966</v>
+        <v>412.92085412117564</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.35">
@@ -4392,67 +4401,68 @@
         <v>0.61104166507720903</v>
       </c>
       <c r="R22" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="S22" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="T22" s="21">
-        <v>44365</v>
+        <v>44370</v>
       </c>
       <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22" s="22">
-        <v>22.9</v>
-      </c>
-      <c r="W22" s="27">
-        <v>25.094000000000005</v>
+        <f>Z22-10</f>
+        <v>44.6</v>
+      </c>
+      <c r="V22" s="31">
+        <v>32.266525268554702</v>
+      </c>
+      <c r="W22">
+        <v>32.260666666666665</v>
       </c>
       <c r="X22">
-        <v>25.129000000000001</v>
-      </c>
-      <c r="Y22" s="30">
-        <v>22.25</v>
+        <v>25.228999999999999</v>
+      </c>
+      <c r="Y22" s="31">
+        <v>6.9600501060485804</v>
       </c>
       <c r="Z22">
-        <v>11</v>
+        <v>54.6</v>
       </c>
       <c r="AA22">
-        <v>1781.4318629483237</v>
+        <v>2189.6671867048258</v>
       </c>
       <c r="AB22">
-        <v>1773.4164621228254</v>
+        <v>2081.0858735386732</v>
       </c>
       <c r="AC22" s="25">
-        <v>22.25</v>
+        <v>6.960050106048584</v>
       </c>
       <c r="AD22" s="24">
-        <v>11</v>
+        <v>54.599998474121094</v>
       </c>
       <c r="AE22" s="25">
-        <v>7.4446427521960068</v>
+        <v>7.9193817236154702</v>
       </c>
       <c r="AF22" s="24">
-        <v>1545.3026073240201</v>
+        <v>515.57213649180255</v>
       </c>
       <c r="AG22" s="24">
-        <v>1550.4168750637268</v>
+        <v>517.64551505566158</v>
       </c>
       <c r="AH22" s="24">
-        <v>1683.9843043923229</v>
+        <v>1966.6496051520644</v>
       </c>
       <c r="AI22" s="24">
-        <v>39.769622677256777</v>
+        <v>88.953779889335337</v>
       </c>
       <c r="AJ22" s="24">
-        <v>49.662603271330255</v>
+        <v>25.482542743043066</v>
       </c>
       <c r="AK22" s="24">
-        <v>16.847709649402525</v>
+        <v>44.266318261786402</v>
       </c>
       <c r="AL22" s="24">
-        <v>1.0972116581311813</v>
+        <v>0.85596403870268289</v>
       </c>
       <c r="AM22" s="24">
         <v>0</v>
@@ -4461,16 +4471,16 @@
         <v>0</v>
       </c>
       <c r="AO22" s="25">
-        <v>17.464662670303873</v>
+        <v>15.462897893143221</v>
       </c>
       <c r="AP22" s="26">
-        <v>1.0233285352641932</v>
+        <v>2.1306212896139911</v>
       </c>
       <c r="AQ22" s="26">
-        <v>0.64851052035063117</v>
+        <v>1.3423912110218352</v>
       </c>
       <c r="AR22" s="24">
-        <v>1591.992081629619</v>
+        <v>522.70465757401382</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.35">
@@ -4526,67 +4536,68 @@
         <v>0.70224106311798096</v>
       </c>
       <c r="R23" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="S23" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="T23" s="21">
-        <v>44365</v>
+        <v>44370</v>
       </c>
       <c r="U23">
-        <v>2.6</v>
-      </c>
-      <c r="V23" s="22">
-        <v>22.9</v>
-      </c>
-      <c r="W23" s="27">
-        <v>24.927333333333333</v>
+        <f>Z23-10</f>
+        <v>23.36</v>
+      </c>
+      <c r="V23" s="31">
+        <v>32.298500061035199</v>
+      </c>
+      <c r="W23">
+        <v>32.260666666666665</v>
       </c>
       <c r="X23">
-        <v>25.210999999999999</v>
-      </c>
-      <c r="Y23" s="30">
-        <v>22.25</v>
+        <v>25.268000000000001</v>
+      </c>
+      <c r="Y23" s="31">
+        <v>9.6168346405029297</v>
       </c>
       <c r="Z23">
-        <v>12.6</v>
+        <v>33.36</v>
       </c>
       <c r="AA23">
-        <v>1772.4664685943635</v>
+        <v>2196.1624584240235</v>
       </c>
       <c r="AB23">
-        <v>1759.8886373135379</v>
+        <v>2024.347417480011</v>
       </c>
       <c r="AC23" s="25">
-        <v>22.25</v>
+        <v>9.6168346405029297</v>
       </c>
       <c r="AD23" s="24">
-        <v>12.600000381469727</v>
+        <v>33.360000610351563</v>
       </c>
       <c r="AE23" s="25">
-        <v>7.4649317654867344</v>
+        <v>8.043427293005573</v>
       </c>
       <c r="AF23" s="24">
-        <v>1465.5045867579495</v>
+        <v>381.233654488338</v>
       </c>
       <c r="AG23" s="24">
-        <v>1470.3547583650677</v>
+        <v>382.71438993746079</v>
       </c>
       <c r="AH23" s="24">
-        <v>1671.5859401814305</v>
+        <v>1880.2685990826485</v>
       </c>
       <c r="AI23" s="24">
-        <v>41.16294073100439</v>
+        <v>126.86714118320566</v>
       </c>
       <c r="AJ23" s="24">
-        <v>47.13983978621981</v>
+        <v>17.211687966577202</v>
       </c>
       <c r="AK23" s="24">
-        <v>17.444233498725353</v>
+        <v>60.672053608917437</v>
       </c>
       <c r="AL23" s="24">
-        <v>1.1453656420484377</v>
+        <v>1.4965185865003219</v>
       </c>
       <c r="AM23" s="24">
         <v>0</v>
@@ -4595,16 +4606,16 @@
         <v>0</v>
       </c>
       <c r="AO23" s="25">
-        <v>17.49197084645872</v>
+        <v>12.766308543812766</v>
       </c>
       <c r="AP23" s="26">
-        <v>1.0601802666585243</v>
+        <v>3.0520726093316859</v>
       </c>
       <c r="AQ23" s="26">
-        <v>0.6713495866109298</v>
+        <v>1.9303713150159958</v>
       </c>
       <c r="AR23" s="24">
-        <v>1509.7867299481809</v>
+        <v>387.20327930169287</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
@@ -4660,68 +4671,68 @@
         <v>0.71781557798385598</v>
       </c>
       <c r="R24" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="T24" s="21">
-        <v>44365</v>
+        <v>44370</v>
       </c>
       <c r="U24">
         <f>Z24-10</f>
-        <v>2.5999999999999996</v>
-      </c>
-      <c r="V24" s="22">
-        <v>22.9</v>
-      </c>
-      <c r="W24" s="27">
-        <v>25.094000000000005</v>
+        <v>1.7300000000000004</v>
+      </c>
+      <c r="V24" s="31">
+        <v>31.570447921752901</v>
+      </c>
+      <c r="W24">
+        <v>31.494</v>
       </c>
       <c r="X24">
-        <v>25.210999999999999</v>
-      </c>
-      <c r="Y24" s="30">
-        <v>22.25</v>
+        <v>25.17</v>
+      </c>
+      <c r="Y24" s="31">
+        <v>14.922009468078601</v>
       </c>
       <c r="Z24">
-        <v>12.6</v>
+        <v>11.73</v>
       </c>
       <c r="AA24">
-        <v>1776.8591115869847</v>
+        <v>2136.9844281072083</v>
       </c>
       <c r="AB24">
-        <v>1766.825461764616</v>
+        <v>1937.7720986619665</v>
       </c>
       <c r="AC24" s="25">
-        <v>22.25</v>
+        <v>14.922009468078613</v>
       </c>
       <c r="AD24" s="24">
-        <v>12.600000381469727</v>
+        <v>11.729999542236328</v>
       </c>
       <c r="AE24" s="25">
-        <v>7.4526889034995216</v>
+        <v>8.0381271948416693</v>
       </c>
       <c r="AF24" s="24">
-        <v>1511.2209988916488</v>
+        <v>383.36337763847831</v>
       </c>
       <c r="AG24" s="24">
-        <v>1516.2224715906323</v>
+        <v>384.75412507516921</v>
       </c>
       <c r="AH24" s="24">
-        <v>1677.8872433458109</v>
+        <v>1777.6279498789975</v>
       </c>
       <c r="AI24" s="24">
-        <v>40.370904859142684</v>
+        <v>145.4645115048182</v>
       </c>
       <c r="AJ24" s="24">
-        <v>48.567295860080584</v>
+        <v>14.679685973648191</v>
       </c>
       <c r="AK24" s="24">
-        <v>17.148206327192995</v>
+        <v>65.964950314893983</v>
       </c>
       <c r="AL24" s="24">
-        <v>1.1178618193010477</v>
+        <v>2.4717885968401494</v>
       </c>
       <c r="AM24" s="24">
         <v>0</v>
@@ -4730,16 +4741,16 @@
         <v>0</v>
       </c>
       <c r="AO24" s="25">
-        <v>17.463718677917875</v>
+        <v>11.580333191321488</v>
       </c>
       <c r="AP24" s="26">
-        <v>1.0385503292232763</v>
+        <v>3.5396218789905181</v>
       </c>
       <c r="AQ24" s="26">
-        <v>0.65816898124344825</v>
+        <v>2.2565480870402634</v>
       </c>
       <c r="AR24" s="24">
-        <v>1556.8807380672772</v>
+        <v>391.18701871393284</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
@@ -4795,68 +4806,68 @@
         <v>1.24865794181824</v>
       </c>
       <c r="R25" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="S25" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="T25" s="21">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="U25">
-        <f t="shared" ref="U25:U57" si="0">Z25-10</f>
-        <v>3</v>
-      </c>
-      <c r="V25" s="30">
-        <v>30.42</v>
-      </c>
-      <c r="W25" s="27">
-        <v>31.594000000000005</v>
+        <f>Z25-10</f>
+        <v>78.33</v>
+      </c>
+      <c r="V25" s="31">
+        <v>32.480873107910199</v>
+      </c>
+      <c r="W25">
+        <v>32.36066666666666</v>
       </c>
       <c r="X25">
-        <v>25.205998999999998</v>
-      </c>
-      <c r="Y25" s="30">
-        <v>23.1</v>
+        <v>25.34</v>
+      </c>
+      <c r="Y25" s="31">
+        <v>6.3087358474731401</v>
       </c>
       <c r="Z25">
-        <v>13</v>
+        <v>88.33</v>
       </c>
       <c r="AA25">
-        <v>2047.9322125279912</v>
+        <v>2199.8124479992157</v>
       </c>
       <c r="AB25">
-        <v>1908.8065944810426</v>
+        <v>2087.0393988641554</v>
       </c>
       <c r="AC25" s="25">
-        <v>23.100000381469727</v>
+        <v>6.3087358474731445</v>
       </c>
       <c r="AD25" s="24">
-        <v>13</v>
+        <v>88.330001831054688</v>
       </c>
       <c r="AE25" s="25">
-        <v>7.7754059931814927</v>
+        <v>7.9388403940028365</v>
       </c>
       <c r="AF25" s="24">
-        <v>736.92162229069584</v>
+        <v>488.86048556238114</v>
       </c>
       <c r="AG25" s="24">
-        <v>739.3351099685176</v>
+        <v>490.84339458065193</v>
       </c>
       <c r="AH25" s="24">
-        <v>1775.7379634498423</v>
+        <v>1971.3035626984129</v>
       </c>
       <c r="AI25" s="24">
-        <v>110.7001139566928</v>
+        <v>91.030319174184228</v>
       </c>
       <c r="AJ25" s="24">
-        <v>22.368540896525527</v>
+        <v>24.705525470075305</v>
       </c>
       <c r="AK25" s="24">
-        <v>47.90203231607822</v>
+        <v>45.620417450077916</v>
       </c>
       <c r="AL25" s="24">
-        <v>2.9091493392610532</v>
+        <v>0.8396524230277852</v>
       </c>
       <c r="AM25" s="24">
         <v>0</v>
@@ -4865,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="AO25" s="25">
-        <v>13.006548811955195</v>
+        <v>15.33612559570925</v>
       </c>
       <c r="AP25" s="26">
-        <v>2.7227588820335531</v>
+        <v>2.1649310082285189</v>
       </c>
       <c r="AQ25" s="26">
-        <v>1.7717922072878782</v>
+        <v>1.3636537331264971</v>
       </c>
       <c r="AR25" s="24">
-        <v>760.16404204730134</v>
+        <v>495.42804620996077</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
@@ -4930,68 +4941,68 @@
         <v>0.59776365756988503</v>
       </c>
       <c r="R26" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="T26" s="21">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="U26">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="V26" s="30">
-        <v>30.42</v>
-      </c>
-      <c r="W26" s="27">
-        <v>31.727333333333334</v>
+        <f>Z26-10</f>
+        <v>33.43</v>
+      </c>
+      <c r="V26" s="31">
+        <v>32.360382080078097</v>
+      </c>
+      <c r="W26">
+        <v>32.260666666666665</v>
       </c>
       <c r="X26">
-        <v>25.254999000000002</v>
-      </c>
-      <c r="Y26" s="30">
-        <v>23.1</v>
+        <v>25.313998999999999</v>
+      </c>
+      <c r="Y26" s="31">
+        <v>7.3931336402893102</v>
       </c>
       <c r="Z26">
-        <v>13</v>
+        <v>43.43</v>
       </c>
       <c r="AA26">
-        <v>2055.9570409564244</v>
+        <v>2198.0492559905092</v>
       </c>
       <c r="AB26">
-        <v>1906.4163397215066</v>
+        <v>2056.3412321411693</v>
       </c>
       <c r="AC26" s="25">
-        <v>23.100000381469727</v>
+        <v>7.3931336402893066</v>
       </c>
       <c r="AD26" s="24">
-        <v>13</v>
+        <v>43.430000305175781</v>
       </c>
       <c r="AE26" s="25">
-        <v>7.7995798973041666</v>
+        <v>8.0040165574296651</v>
       </c>
       <c r="AF26" s="24">
-        <v>693.81836925441905</v>
+        <v>418.32317837698321</v>
       </c>
       <c r="AG26" s="24">
-        <v>696.09068972133218</v>
+        <v>419.99591460173889</v>
       </c>
       <c r="AH26" s="24">
-        <v>1768.4406389020367</v>
+        <v>1928.0498101469502</v>
       </c>
       <c r="AI26" s="24">
-        <v>116.93038664888498</v>
+        <v>107.92420021828254</v>
       </c>
       <c r="AJ26" s="24">
-        <v>21.045353364388451</v>
+        <v>20.367375103607763</v>
       </c>
       <c r="AK26" s="24">
-        <v>50.588267828949817</v>
+        <v>53.073921187342066</v>
       </c>
       <c r="AL26" s="24">
-        <v>3.0835068333898472</v>
+        <v>1.0872835703386312</v>
       </c>
       <c r="AM26" s="24">
         <v>0</v>
@@ -5000,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="AO26" s="25">
-        <v>12.656155899567201</v>
+        <v>14.013184195871954</v>
       </c>
       <c r="AP26" s="26">
-        <v>2.8731230172322695</v>
+        <v>2.5906061961034585</v>
       </c>
       <c r="AQ26" s="26">
-        <v>1.8703104717406649</v>
+        <v>1.6330038916502745</v>
       </c>
       <c r="AR26" s="24">
-        <v>715.69985512971664</v>
+        <v>424.22560124852299</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.35">
@@ -5065,68 +5076,68 @@
         <v>0.59776365756988503</v>
       </c>
       <c r="R27" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="S27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="T27" s="21">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="U27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V27" s="30">
-        <v>29.83</v>
-      </c>
-      <c r="W27" s="27">
-        <v>31.594000000000005</v>
+        <f>Z27-10</f>
+        <v>33.43</v>
+      </c>
+      <c r="V27" s="31">
+        <v>32.360382080078097</v>
+      </c>
+      <c r="W27">
+        <v>32.260666666666665</v>
       </c>
       <c r="X27">
-        <v>25.25</v>
-      </c>
-      <c r="Y27" s="30">
-        <v>23.1</v>
+        <v>25.313998999999999</v>
+      </c>
+      <c r="Y27" s="31">
+        <v>7.3931336402893102</v>
       </c>
       <c r="Z27">
-        <v>11</v>
+        <v>43.43</v>
       </c>
       <c r="AA27">
-        <v>2048.1823630400995</v>
+        <v>2197.4481678057223</v>
       </c>
       <c r="AB27">
-        <v>1905.7958906137123</v>
+        <v>2059.7881861325218</v>
       </c>
       <c r="AC27" s="25">
-        <v>23.100000381469727</v>
+        <v>7.3931336402893066</v>
       </c>
       <c r="AD27" s="24">
-        <v>11</v>
+        <v>43.430000305175781</v>
       </c>
       <c r="AE27" s="25">
-        <v>7.7839255754744352</v>
+        <v>7.9933374668389687</v>
       </c>
       <c r="AF27" s="24">
-        <v>720.93864087374334</v>
+        <v>429.89768855603711</v>
       </c>
       <c r="AG27" s="24">
-        <v>723.29978278298165</v>
+        <v>431.61670742411997</v>
       </c>
       <c r="AH27" s="24">
-        <v>1771.3154162839471</v>
+        <v>1933.2692372177441</v>
       </c>
       <c r="AI27" s="24">
-        <v>112.59707596401032</v>
+        <v>105.58782385905525</v>
       </c>
       <c r="AJ27" s="24">
-        <v>21.88339300201493</v>
+        <v>20.930916410049576</v>
       </c>
       <c r="AK27" s="24">
-        <v>48.723188371314002</v>
+        <v>51.952739075179501</v>
       </c>
       <c r="AL27" s="24">
-        <v>2.966343764334832</v>
+        <v>1.060873826975556</v>
       </c>
       <c r="AM27" s="24">
         <v>0</v>
@@ -5135,16 +5146,16 @@
         <v>0</v>
       </c>
       <c r="AO27" s="25">
-        <v>12.891022347642592</v>
+        <v>14.180476579830543</v>
       </c>
       <c r="AP27" s="26">
-        <v>2.7702371660819192</v>
+        <v>2.5345239544894178</v>
       </c>
       <c r="AQ27" s="26">
-        <v>1.8026469650137433</v>
+        <v>1.5976521199506819</v>
       </c>
       <c r="AR27" s="24">
-        <v>743.67695930964112</v>
+        <v>435.96342452409897</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.35">
@@ -5200,68 +5211,68 @@
         <v>0.97515338659286499</v>
       </c>
       <c r="R28" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="S28" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T28" s="21">
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="U28">
-        <f t="shared" si="0"/>
+        <f>Z28-10</f>
         <v>2</v>
       </c>
-      <c r="V28" s="22">
-        <v>29.9</v>
-      </c>
-      <c r="W28" s="27">
-        <v>30.260666666666665</v>
+      <c r="V28" s="31">
+        <v>31.697078704833999</v>
+      </c>
+      <c r="W28">
+        <v>31.760666666666669</v>
       </c>
       <c r="X28">
-        <v>25.118998999999999</v>
-      </c>
-      <c r="Y28" s="30">
-        <v>20.99</v>
+        <v>25.26</v>
+      </c>
+      <c r="Y28" s="31">
+        <v>14.4788913726807</v>
       </c>
       <c r="Z28">
         <v>12</v>
       </c>
       <c r="AA28">
-        <v>2024.6582088814378</v>
+        <v>2146.3456539624653</v>
       </c>
       <c r="AB28">
-        <v>1931.8750957347752</v>
+        <v>1945.2377945198991</v>
       </c>
       <c r="AC28" s="25">
-        <v>20.989999771118164</v>
+        <v>14.478891372680664</v>
       </c>
       <c r="AD28" s="24">
         <v>12</v>
       </c>
       <c r="AE28" s="25">
-        <v>7.6946626964702984</v>
+        <v>8.0447119782092358</v>
       </c>
       <c r="AF28" s="24">
-        <v>904.16067557604174</v>
+        <v>377.36223739265228</v>
       </c>
       <c r="AG28" s="24">
-        <v>907.20004671078482</v>
+        <v>378.73896104407453</v>
       </c>
       <c r="AH28" s="24">
-        <v>1818.8216186783957</v>
+        <v>1784.1596725147247</v>
       </c>
       <c r="AI28" s="24">
-        <v>83.802281395566339</v>
+        <v>146.45307836677455</v>
       </c>
       <c r="AJ28" s="24">
-        <v>29.251229156358487</v>
+        <v>14.624994649404046</v>
       </c>
       <c r="AK28" s="24">
-        <v>36.309791566960406</v>
+        <v>66.874349000337361</v>
       </c>
       <c r="AL28" s="24">
-        <v>1.9429007698940883</v>
+        <v>2.4148142115775997</v>
       </c>
       <c r="AM28" s="24">
         <v>0</v>
@@ -5270,16 +5281,16 @@
         <v>0</v>
       </c>
       <c r="AO28" s="25">
-        <v>14.956767622139576</v>
+        <v>11.552505738262951</v>
       </c>
       <c r="AP28" s="26">
-        <v>2.0731219501776144</v>
+        <v>3.556263691960222</v>
       </c>
       <c r="AQ28" s="26">
-        <v>1.3361488733127</v>
+        <v>2.2666110847404224</v>
       </c>
       <c r="AR28" s="24">
-        <v>929.61289940631332</v>
+        <v>384.88888958751369</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.35">
@@ -5338,65 +5349,65 @@
         <v>138</v>
       </c>
       <c r="S29" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="T29" s="21">
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="U29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="V29" s="22">
-        <v>29.9</v>
+        <f t="shared" ref="U29:U46" si="0">Z29-10</f>
+        <v>30.64</v>
+      </c>
+      <c r="V29" s="31">
+        <v>32.165306091308601</v>
       </c>
       <c r="W29" s="27">
-        <v>30.394000000000002</v>
+        <v>32.194000000000003</v>
       </c>
       <c r="X29">
-        <v>25.129000000000001</v>
-      </c>
-      <c r="Y29" s="30">
-        <v>20.99</v>
+        <v>25.152000000000001</v>
+      </c>
+      <c r="Y29" s="31">
+        <v>7.86415338516235</v>
       </c>
       <c r="Z29">
-        <v>12</v>
+        <v>40.64</v>
       </c>
       <c r="AA29">
-        <v>2029.8913575947427</v>
+        <v>2186.3144655554715</v>
       </c>
       <c r="AB29">
-        <v>1937.7439340166991</v>
+        <v>2074.9228163561233</v>
       </c>
       <c r="AC29" s="25">
-        <v>20.989999771118164</v>
+        <v>7.8641533851623535</v>
       </c>
       <c r="AD29" s="24">
-        <v>12</v>
+        <v>40.639999389648438</v>
       </c>
       <c r="AE29" s="25">
-        <v>7.6906772818635689</v>
+        <v>7.9145179722655286</v>
       </c>
       <c r="AF29" s="24">
-        <v>914.85845814215691</v>
+        <v>525.03163720112605</v>
       </c>
       <c r="AG29" s="24">
-        <v>917.93379028738798</v>
+        <v>527.11812511545963</v>
       </c>
       <c r="AH29" s="24">
-        <v>1824.5874844394025</v>
+        <v>1958.8332120951952</v>
       </c>
       <c r="AI29" s="24">
-        <v>83.580236317938258</v>
+        <v>90.928658548733878</v>
       </c>
       <c r="AJ29" s="24">
-        <v>29.576137676919036</v>
+        <v>25.161030002995854</v>
       </c>
       <c r="AK29" s="24">
-        <v>36.234062601495133</v>
+        <v>44.708243232802268</v>
       </c>
       <c r="AL29" s="24">
-        <v>1.9301463239653922</v>
+        <v>0.92805437636834254</v>
       </c>
       <c r="AM29" s="24">
         <v>0</v>
@@ -5405,16 +5416,16 @@
         <v>0</v>
       </c>
       <c r="AO29" s="25">
-        <v>14.981533492266212</v>
+        <v>15.275066611183396</v>
       </c>
       <c r="AP29" s="26">
-        <v>2.0656941097579189</v>
+        <v>2.1846588629747745</v>
       </c>
       <c r="AQ29" s="26">
-        <v>1.3319082745544371</v>
+        <v>1.377808190548119</v>
       </c>
       <c r="AR29" s="24">
-        <v>940.61014025825432</v>
+        <v>532.60214651752665</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.35">
@@ -5473,65 +5484,65 @@
         <v>139</v>
       </c>
       <c r="S30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T30" s="21">
         <v>44370</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>2.0199999999999996</v>
+        <v>15.77</v>
       </c>
       <c r="V30" s="31">
-        <v>31.5982990264893</v>
+        <v>31.953353881835898</v>
       </c>
       <c r="W30" s="27">
-        <v>31.660666666666668</v>
+        <v>31.860666666666663</v>
       </c>
       <c r="X30">
-        <v>24.868998999999999</v>
+        <v>25.219000000000001</v>
       </c>
       <c r="Y30" s="31">
-        <v>12.9808187484741</v>
+        <v>8.9390201568603498</v>
       </c>
       <c r="Z30">
-        <v>12.02</v>
+        <v>25.77</v>
       </c>
       <c r="AA30">
-        <v>2142.6390175083584</v>
+        <v>2173.8343363816061</v>
       </c>
       <c r="AB30">
-        <v>1985.0793624691003</v>
+        <v>2045.6003822650068</v>
       </c>
       <c r="AC30" s="25">
-        <v>12.980818748474121</v>
+        <v>8.9390201568603516</v>
       </c>
       <c r="AD30" s="24">
-        <v>12.020000457763672</v>
+        <v>25.770000457763672</v>
       </c>
       <c r="AE30" s="25">
-        <v>7.9683888301328132</v>
+        <v>7.9504078621989587</v>
       </c>
       <c r="AF30" s="24">
-        <v>460.40757882116156</v>
+        <v>480.7497424444802</v>
       </c>
       <c r="AG30" s="24">
-        <v>462.11976308807147</v>
+        <v>482.63357444209953</v>
       </c>
       <c r="AH30" s="24">
-        <v>1847.2084403001438</v>
+        <v>1922.6547269410523</v>
       </c>
       <c r="AI30" s="24">
-        <v>119.16670514118623</v>
+        <v>100.69103163054108</v>
       </c>
       <c r="AJ30" s="24">
-        <v>18.704230585657804</v>
+        <v>22.254683644206981</v>
       </c>
       <c r="AK30" s="24">
-        <v>55.362706654108216</v>
+        <v>48.689874239711884</v>
       </c>
       <c r="AL30" s="24">
-        <v>1.7453011010648705</v>
+        <v>1.1189938618333504</v>
       </c>
       <c r="AM30" s="24">
         <v>0</v>
@@ -5540,16 +5551,16 @@
         <v>0</v>
       </c>
       <c r="AO30" s="25">
-        <v>13.027378120103551</v>
+        <v>14.462244924858307</v>
       </c>
       <c r="AP30" s="26">
-        <v>2.892252358532085</v>
+        <v>2.4307981664231297</v>
       </c>
       <c r="AQ30" s="26">
-        <v>1.8373148631461682</v>
+        <v>1.534072217952946</v>
       </c>
       <c r="AR30" s="24">
-        <v>468.91694280554577</v>
+        <v>488.04001300973448</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.35">
@@ -5608,65 +5619,65 @@
         <v>140</v>
       </c>
       <c r="S31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T31" s="21">
         <v>44370</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>30.64</v>
+        <v>15.77</v>
       </c>
       <c r="V31" s="31">
-        <v>32.165306091308601</v>
+        <v>31.953353881835898</v>
       </c>
       <c r="W31" s="27">
-        <v>32.194000000000003</v>
-      </c>
-      <c r="X31">
-        <v>25.152000000000001</v>
+        <v>31.794</v>
+      </c>
+      <c r="X31" s="29">
+        <v>25.186001000000001</v>
       </c>
       <c r="Y31" s="31">
-        <v>7.86415338516235</v>
+        <v>8.9390201568603498</v>
       </c>
       <c r="Z31">
-        <v>40.64</v>
+        <v>25.77</v>
       </c>
       <c r="AA31">
-        <v>2186.3144655554715</v>
+        <v>2168.7402018591538</v>
       </c>
       <c r="AB31">
-        <v>2074.9228163561233</v>
+        <v>2038.5496834587836</v>
       </c>
       <c r="AC31" s="25">
-        <v>7.8641533851623535</v>
+        <v>8.9390201568603516</v>
       </c>
       <c r="AD31" s="24">
-        <v>40.639999389648438</v>
+        <v>25.770000457763672</v>
       </c>
       <c r="AE31" s="25">
-        <v>7.9145179722655286</v>
+        <v>7.9571240034965065</v>
       </c>
       <c r="AF31" s="24">
-        <v>525.03163720112605</v>
+        <v>471.58683644953726</v>
       </c>
       <c r="AG31" s="24">
-        <v>527.11812511545963</v>
+        <v>473.43476333066775</v>
       </c>
       <c r="AH31" s="24">
-        <v>1958.8332120951952</v>
+        <v>1915.0165508731268</v>
       </c>
       <c r="AI31" s="24">
-        <v>90.928658548733878</v>
+        <v>101.69414161038748</v>
       </c>
       <c r="AJ31" s="24">
-        <v>25.161030002995854</v>
+        <v>21.838939350515925</v>
       </c>
       <c r="AK31" s="24">
-        <v>44.708243232802268</v>
+        <v>49.211342194538311</v>
       </c>
       <c r="AL31" s="24">
-        <v>0.92805437636834254</v>
+        <v>1.1352051108559176</v>
       </c>
       <c r="AM31" s="24">
         <v>0</v>
@@ -5675,16 +5686,16 @@
         <v>0</v>
       </c>
       <c r="AO31" s="25">
-        <v>15.275066611183396</v>
+        <v>14.366888831692929</v>
       </c>
       <c r="AP31" s="26">
-        <v>2.1846588629747745</v>
+        <v>2.4559098874533958</v>
       </c>
       <c r="AQ31" s="26">
-        <v>1.377808190548119</v>
+        <v>1.5496581691411926</v>
       </c>
       <c r="AR31" s="24">
-        <v>532.60214651752665</v>
+        <v>478.73835174112077</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
@@ -5740,68 +5751,68 @@
         <v>1.07188189029694</v>
       </c>
       <c r="R32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="S32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T32" s="21">
         <v>44370</v>
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>15.77</v>
+        <v>2.0199999999999996</v>
       </c>
       <c r="V32" s="31">
-        <v>31.953353881835898</v>
+        <v>31.5982990264893</v>
       </c>
       <c r="W32" s="27">
-        <v>31.860666666666663</v>
+        <v>31.660666666666668</v>
       </c>
       <c r="X32">
-        <v>25.219000000000001</v>
+        <v>24.868998999999999</v>
       </c>
       <c r="Y32" s="31">
-        <v>8.9390201568603498</v>
+        <v>12.9808187484741</v>
       </c>
       <c r="Z32">
-        <v>25.77</v>
+        <v>12.02</v>
       </c>
       <c r="AA32">
-        <v>2173.8343363816061</v>
+        <v>2142.6390175083584</v>
       </c>
       <c r="AB32">
-        <v>2045.6003822650068</v>
+        <v>1985.0793624691003</v>
       </c>
       <c r="AC32" s="25">
-        <v>8.9390201568603516</v>
+        <v>12.980818748474121</v>
       </c>
       <c r="AD32" s="24">
-        <v>25.770000457763672</v>
+        <v>12.020000457763672</v>
       </c>
       <c r="AE32" s="25">
-        <v>7.9504078621989587</v>
+        <v>7.9683888301328132</v>
       </c>
       <c r="AF32" s="24">
-        <v>480.7497424444802</v>
+        <v>460.40757882116156</v>
       </c>
       <c r="AG32" s="24">
-        <v>482.63357444209953</v>
+        <v>462.11976308807147</v>
       </c>
       <c r="AH32" s="24">
-        <v>1922.6547269410523</v>
+        <v>1847.2084403001438</v>
       </c>
       <c r="AI32" s="24">
-        <v>100.69103163054108</v>
+        <v>119.16670514118623</v>
       </c>
       <c r="AJ32" s="24">
-        <v>22.254683644206981</v>
+        <v>18.704230585657804</v>
       </c>
       <c r="AK32" s="24">
-        <v>48.689874239711884</v>
+        <v>55.362706654108216</v>
       </c>
       <c r="AL32" s="24">
-        <v>1.1189938618333504</v>
+        <v>1.7453011010648705</v>
       </c>
       <c r="AM32" s="24">
         <v>0</v>
@@ -5810,16 +5821,16 @@
         <v>0</v>
       </c>
       <c r="AO32" s="25">
-        <v>14.462244924858307</v>
+        <v>13.027378120103551</v>
       </c>
       <c r="AP32" s="26">
-        <v>2.4307981664231297</v>
+        <v>2.892252358532085</v>
       </c>
       <c r="AQ32" s="26">
-        <v>1.534072217952946</v>
+        <v>1.8373148631461682</v>
       </c>
       <c r="AR32" s="24">
-        <v>488.04001300973448</v>
+        <v>468.91694280554577</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.35">
@@ -5875,68 +5886,68 @@
         <v>0.61441123485565197</v>
       </c>
       <c r="R33" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="S33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="T33" s="21">
-        <v>44370</v>
+        <v>44394</v>
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>15.77</v>
-      </c>
-      <c r="V33" s="31">
-        <v>31.953353881835898</v>
-      </c>
-      <c r="W33" s="27">
-        <v>31.794</v>
-      </c>
-      <c r="X33" s="29">
-        <v>25.186001000000001</v>
-      </c>
-      <c r="Y33" s="31">
-        <v>8.9390201568603498</v>
+        <v>28.15</v>
+      </c>
+      <c r="V33" s="32">
+        <v>32.099300384521499</v>
+      </c>
+      <c r="W33">
+        <v>32.060666666666677</v>
+      </c>
+      <c r="X33">
+        <v>25.304001</v>
+      </c>
+      <c r="Y33" s="32">
+        <v>10.001736640930201</v>
       </c>
       <c r="Z33">
-        <v>25.77</v>
+        <v>38.15</v>
       </c>
       <c r="AA33">
-        <v>2168.7402018591538</v>
+        <v>2176.6304803392868</v>
       </c>
       <c r="AB33">
-        <v>2038.5496834587836</v>
+        <v>2053.7357404477057</v>
       </c>
       <c r="AC33" s="25">
-        <v>8.9390201568603516</v>
+        <v>10.001736640930176</v>
       </c>
       <c r="AD33" s="24">
-        <v>25.770000457763672</v>
+        <v>38.150001525878906</v>
       </c>
       <c r="AE33" s="25">
-        <v>7.9571240034965065</v>
+        <v>7.915249393098728</v>
       </c>
       <c r="AF33" s="24">
-        <v>471.58683644953726</v>
+        <v>528.13250255425623</v>
       </c>
       <c r="AG33" s="24">
-        <v>473.43476333066775</v>
+        <v>530.17356032133091</v>
       </c>
       <c r="AH33" s="24">
-        <v>1915.0165508731268</v>
+        <v>1931.9327355479313</v>
       </c>
       <c r="AI33" s="24">
-        <v>101.69414161038748</v>
+        <v>98.23501637768446</v>
       </c>
       <c r="AJ33" s="24">
-        <v>21.838939350515925</v>
+        <v>23.568025810094582</v>
       </c>
       <c r="AK33" s="24">
-        <v>49.211342194538311</v>
+        <v>47.084582904318566</v>
       </c>
       <c r="AL33" s="24">
-        <v>1.1352051108559176</v>
+        <v>1.1553363219087975</v>
       </c>
       <c r="AM33" s="24">
         <v>0</v>
@@ -5945,16 +5956,16 @@
         <v>0</v>
       </c>
       <c r="AO33" s="25">
-        <v>14.366888831692929</v>
+        <v>14.629960089109804</v>
       </c>
       <c r="AP33" s="26">
-        <v>2.4559098874533958</v>
+        <v>2.3640909498641314</v>
       </c>
       <c r="AQ33" s="26">
-        <v>1.5496581691411926</v>
+        <v>1.4955674053895789</v>
       </c>
       <c r="AR33" s="24">
-        <v>478.73835174112077</v>
+        <v>536.55738721841226</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.35">
@@ -6010,68 +6021,68 @@
         <v>0.83590537309646595</v>
       </c>
       <c r="R34" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="S34" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="T34" s="21">
         <v>44394</v>
       </c>
       <c r="U34">
         <f t="shared" si="0"/>
-        <v>1.7100000000000009</v>
+        <v>13.29</v>
       </c>
       <c r="V34" s="32">
-        <v>30.251529693603501</v>
-      </c>
-      <c r="W34" s="27">
-        <v>30.960666666666668</v>
-      </c>
-      <c r="X34" s="29">
-        <v>25.134001000000001</v>
+        <v>31.3125400543213</v>
+      </c>
+      <c r="W34">
+        <v>31.527333333333335</v>
+      </c>
+      <c r="X34">
+        <v>25.374001</v>
       </c>
       <c r="Y34" s="32">
-        <v>18.773841857910199</v>
+        <v>16.800390243530298</v>
       </c>
       <c r="Z34">
-        <v>11.71</v>
+        <v>23.29</v>
       </c>
       <c r="AA34">
-        <v>2085.1523599504712</v>
+        <v>2127.0707595036474</v>
       </c>
       <c r="AB34">
-        <v>1954.9096341008408</v>
+        <v>1931.3181832548198</v>
       </c>
       <c r="AC34" s="25">
-        <v>18.773841857910156</v>
+        <v>16.800390243530273</v>
       </c>
       <c r="AD34" s="24">
-        <v>11.710000038146973</v>
+        <v>23.280000686645508</v>
       </c>
       <c r="AE34" s="25">
-        <v>7.8213885979110032</v>
+        <v>8.0006773683137347</v>
       </c>
       <c r="AF34" s="24">
-        <v>667.72427545348933</v>
+        <v>421.72628691304323</v>
       </c>
       <c r="AG34" s="24">
-        <v>670.03169103486846</v>
+        <v>423.22022007698831</v>
       </c>
       <c r="AH34" s="24">
-        <v>1827.0869914320717</v>
+        <v>1772.0717951823915</v>
       </c>
       <c r="AI34" s="24">
-        <v>104.9284706369539</v>
+        <v>143.9838848212076</v>
       </c>
       <c r="AJ34" s="24">
-        <v>22.894184814581255</v>
+        <v>15.262518327101336</v>
       </c>
       <c r="AK34" s="24">
-        <v>46.077311171323423</v>
+        <v>64.320074789146815</v>
       </c>
       <c r="AL34" s="24">
-        <v>2.1464642430694632</v>
+        <v>2.7214546679268361</v>
       </c>
       <c r="AM34" s="24">
         <v>0</v>
@@ -6080,16 +6091,16 @@
         <v>0</v>
       </c>
       <c r="AO34" s="25">
-        <v>13.696460770789953</v>
+        <v>11.60379964532107</v>
       </c>
       <c r="AP34" s="26">
-        <v>2.5738287717070918</v>
+        <v>3.5028816278528194</v>
       </c>
       <c r="AQ34" s="26">
-        <v>1.6529947114949584</v>
+        <v>2.2429397034993772</v>
       </c>
       <c r="AR34" s="24">
-        <v>684.40863767698306</v>
+        <v>431.21671251901506</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.35">
@@ -6145,68 +6156,68 @@
         <v>1.0309194326400799</v>
       </c>
       <c r="R35" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="S35" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T35" s="21">
         <v>44394</v>
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>30.090000000000003</v>
+        <v>2.1999999999999993</v>
       </c>
       <c r="V35" s="32">
-        <v>32.094448089599602</v>
-      </c>
-      <c r="W35" s="27">
-        <v>32.060666666666677</v>
-      </c>
-      <c r="X35" s="29">
-        <v>25.124001</v>
+        <v>30.693523406982401</v>
+      </c>
+      <c r="W35">
+        <v>30.927333333333337</v>
+      </c>
+      <c r="X35">
+        <v>25.358000000000001</v>
       </c>
       <c r="Y35" s="32">
-        <v>9.6824779510497994</v>
+        <v>20.815656661987301</v>
       </c>
       <c r="Z35">
-        <v>40.090000000000003</v>
+        <v>12.2</v>
       </c>
       <c r="AA35">
-        <v>2182.0810295967344</v>
+        <v>2082.6503426479326</v>
       </c>
       <c r="AB35">
-        <v>2079.4417191675511</v>
+        <v>1828.7814401120581</v>
       </c>
       <c r="AC35" s="25">
-        <v>9.6824779510498047</v>
+        <v>20.815656661987305</v>
       </c>
       <c r="AD35" s="24">
-        <v>40.090000152587891</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="AE35" s="25">
-        <v>7.8616834674901188</v>
+        <v>8.0728074989902954</v>
       </c>
       <c r="AF35" s="24">
-        <v>605.74836703023061</v>
+        <v>339.19626567737066</v>
       </c>
       <c r="AG35" s="24">
-        <v>608.09912274745795</v>
+        <v>340.33895575914948</v>
       </c>
       <c r="AH35" s="24">
-        <v>1964.9949531862533</v>
+        <v>1635.9902802853171</v>
       </c>
       <c r="AI35" s="24">
-        <v>87.127036866519234</v>
+        <v>181.80440616561506</v>
       </c>
       <c r="AJ35" s="24">
-        <v>27.319687726186803</v>
+        <v>10.986759059753359</v>
       </c>
       <c r="AK35" s="24">
-        <v>41.857348473249886</v>
+        <v>78.433678207439272</v>
       </c>
       <c r="AL35" s="24">
-        <v>0.98873574875643389</v>
+        <v>4.6261782178840631</v>
       </c>
       <c r="AM35" s="24">
         <v>0</v>
@@ -6215,16 +6226,16 @@
         <v>0</v>
       </c>
       <c r="AO35" s="25">
-        <v>15.550968793328781</v>
+        <v>9.9619501773613717</v>
       </c>
       <c r="AP35" s="26">
-        <v>2.0958073849139125</v>
+        <v>4.4749331368884997</v>
       </c>
       <c r="AQ35" s="26">
-        <v>1.3251619469925651</v>
+        <v>2.8885921149299363</v>
       </c>
       <c r="AR35" s="24">
-        <v>615.26425801066853</v>
+        <v>348.65222880226457</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.35">
@@ -6280,68 +6291,68 @@
         <v>0.87342530488967896</v>
       </c>
       <c r="R36" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S36" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="T36" s="21">
         <v>44394</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>46.9</v>
       </c>
       <c r="V36" s="32">
-        <v>31.510738372802699</v>
+        <v>32.212856292724602</v>
       </c>
       <c r="W36">
-        <v>31.360666666666663</v>
+        <v>32.160666666666671</v>
       </c>
       <c r="X36">
-        <v>24.986999999999998</v>
+        <v>25.210999999999999</v>
       </c>
       <c r="Y36" s="32">
-        <v>11.8032140731812</v>
+        <v>8.5952644348144496</v>
       </c>
       <c r="Z36">
-        <v>24</v>
+        <v>56.9</v>
       </c>
       <c r="AA36">
-        <v>2134.7626248380839</v>
+        <v>2187.5254484183729</v>
       </c>
       <c r="AB36">
-        <v>2026.859039801541</v>
+        <v>2092.9177329087729</v>
       </c>
       <c r="AC36" s="25">
-        <v>11.803214073181152</v>
+        <v>8.5952644348144531</v>
       </c>
       <c r="AD36" s="24">
-        <v>24</v>
+        <v>56.900001525878906</v>
       </c>
       <c r="AE36" s="25">
-        <v>7.8566101734818421</v>
+        <v>7.8526702950227127</v>
       </c>
       <c r="AF36" s="24">
-        <v>609.90560720630788</v>
+        <v>615.96178573614498</v>
       </c>
       <c r="AG36" s="24">
-        <v>612.2083648984343</v>
+        <v>618.38631268158611</v>
       </c>
       <c r="AH36" s="24">
-        <v>1910.9933271145264</v>
+        <v>1981.7282936905406</v>
       </c>
       <c r="AI36" s="24">
-        <v>90.098585935725751</v>
+        <v>82.392255149383288</v>
       </c>
       <c r="AJ36" s="24">
-        <v>25.767059335273565</v>
+        <v>28.797133763077984</v>
       </c>
       <c r="AK36" s="24">
-        <v>42.391236560342584</v>
+        <v>40.158063760660802</v>
       </c>
       <c r="AL36" s="24">
-        <v>1.195139454463565</v>
+        <v>0.86881010352319288</v>
       </c>
       <c r="AM36" s="24">
         <v>0</v>
@@ -6350,16 +6361,16 @@
         <v>0</v>
       </c>
       <c r="AO36" s="25">
-        <v>15.113523382987871</v>
+        <v>15.988373803405407</v>
       </c>
       <c r="AP36" s="26">
-        <v>2.1843590356274847</v>
+        <v>1.9740478557039238</v>
       </c>
       <c r="AQ36" s="26">
-        <v>1.3835948278362253</v>
+        <v>1.2465261791687019</v>
       </c>
       <c r="AR36" s="24">
-        <v>620.53453652396695</v>
+        <v>625.15131278163437</v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.35">
@@ -6415,68 +6426,68 @@
         <v>0.39901986718177801</v>
       </c>
       <c r="R37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S37" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T37" s="21">
         <v>44394</v>
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>23.57</v>
       </c>
       <c r="V37" s="32">
-        <v>31.510738372802699</v>
+        <v>31.920093536376999</v>
       </c>
       <c r="W37">
-        <v>31.360666666666663</v>
+        <v>31.494</v>
       </c>
       <c r="X37">
-        <v>25.172999999999998</v>
+        <v>25.257999000000002</v>
       </c>
       <c r="Y37" s="32">
-        <v>11.8032140731812</v>
+        <v>12.5191087722778</v>
       </c>
       <c r="Z37">
-        <v>24</v>
+        <v>33.57</v>
       </c>
       <c r="AA37">
-        <v>2133.691755694857</v>
+        <v>2125.2248837773827</v>
       </c>
       <c r="AB37">
-        <v>2006.8064085758306</v>
+        <v>1963.5843136049209</v>
       </c>
       <c r="AC37" s="25">
-        <v>11.803214073181152</v>
+        <v>12.519108772277832</v>
       </c>
       <c r="AD37" s="24">
-        <v>24</v>
+        <v>33.569999694824219</v>
       </c>
       <c r="AE37" s="25">
-        <v>7.9108246705009888</v>
+        <v>7.9895204029493803</v>
       </c>
       <c r="AF37" s="24">
-        <v>530.65883845090195</v>
+        <v>430.89161641687679</v>
       </c>
       <c r="AG37" s="24">
-        <v>532.66239229218399</v>
+        <v>432.50356442283925</v>
       </c>
       <c r="AH37" s="24">
-        <v>1883.7637856730373</v>
+        <v>1824.8979382621833</v>
       </c>
       <c r="AI37" s="24">
-        <v>100.62357543599828</v>
+        <v>120.90727340580568</v>
       </c>
       <c r="AJ37" s="24">
-        <v>22.419072091800494</v>
+        <v>17.779239336873772</v>
       </c>
       <c r="AK37" s="24">
-        <v>47.339209638414545</v>
+        <v>56.774408806108056</v>
       </c>
       <c r="AL37" s="24">
-        <v>1.3540449468315185</v>
+        <v>1.7483419853959448</v>
       </c>
       <c r="AM37" s="24">
         <v>0</v>
@@ -6485,16 +6496,16 @@
         <v>0</v>
       </c>
       <c r="AO37" s="25">
-        <v>14.289185249750094</v>
+        <v>12.846084445064298</v>
       </c>
       <c r="AP37" s="26">
-        <v>2.4395279228640225</v>
+        <v>2.9253418946599741</v>
       </c>
       <c r="AQ37" s="26">
-        <v>1.5452213493223235</v>
+        <v>1.8563264694925383</v>
       </c>
       <c r="AR37" s="24">
-        <v>539.90672077735144</v>
+        <v>438.6733128442832</v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.35">
@@ -6550,68 +6561,68 @@
         <v>1.2231312990188601</v>
       </c>
       <c r="R38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S38" t="s">
         <v>26</v>
       </c>
       <c r="T38" s="21">
-        <v>44370</v>
+        <v>44394</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>1.7300000000000004</v>
-      </c>
-      <c r="V38" s="31">
-        <v>31.570447921752901</v>
+        <v>2.0199999999999996</v>
+      </c>
+      <c r="V38" s="32">
+        <v>30.4202365875244</v>
       </c>
       <c r="W38">
-        <v>31.494</v>
+        <v>30.560666666666673</v>
       </c>
       <c r="X38">
-        <v>25.17</v>
-      </c>
-      <c r="Y38" s="31">
-        <v>14.922009468078601</v>
+        <v>25.25</v>
+      </c>
+      <c r="Y38" s="32">
+        <v>21.8410835266113</v>
       </c>
       <c r="Z38">
-        <v>11.73</v>
+        <v>12.02</v>
       </c>
       <c r="AA38">
-        <v>2136.9844281072083</v>
+        <v>2057.1996728754057</v>
       </c>
       <c r="AB38">
-        <v>1937.7720986619665</v>
+        <v>1805.8665360167884</v>
       </c>
       <c r="AC38" s="25">
-        <v>14.922009468078613</v>
+        <v>21.841083526611328</v>
       </c>
       <c r="AD38" s="24">
-        <v>11.729999542236328</v>
+        <v>12.020000457763672</v>
       </c>
       <c r="AE38" s="25">
-        <v>8.0381271948416693</v>
+        <v>8.0608635646897024</v>
       </c>
       <c r="AF38" s="24">
-        <v>383.36337763847831</v>
+        <v>346.56171942023883</v>
       </c>
       <c r="AG38" s="24">
-        <v>384.75412507516921</v>
+        <v>347.71449082418059</v>
       </c>
       <c r="AH38" s="24">
-        <v>1777.6279498789975</v>
+        <v>1614.743475624304</v>
       </c>
       <c r="AI38" s="24">
-        <v>145.4645115048182</v>
+        <v>180.18510657087472</v>
       </c>
       <c r="AJ38" s="24">
-        <v>14.679685973648191</v>
+        <v>10.938020613058402</v>
       </c>
       <c r="AK38" s="24">
-        <v>65.964950314893983</v>
+        <v>77.186055429753068</v>
       </c>
       <c r="AL38" s="24">
-        <v>2.4717885968401494</v>
+        <v>4.9087292812224703</v>
       </c>
       <c r="AM38" s="24">
         <v>0</v>
@@ -6620,16 +6631,16 @@
         <v>0</v>
       </c>
       <c r="AO38" s="25">
-        <v>11.580333191321488</v>
+        <v>9.9360091486714825</v>
       </c>
       <c r="AP38" s="26">
-        <v>3.5396218789905181</v>
+        <v>4.4552254288971112</v>
       </c>
       <c r="AQ38" s="26">
-        <v>2.2565480870402634</v>
+        <v>2.8805778788455072</v>
       </c>
       <c r="AR38" s="24">
-        <v>391.18701871393284</v>
+        <v>356.77531145744229</v>
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.35">
@@ -6685,68 +6696,68 @@
         <v>1.3671298027038601</v>
       </c>
       <c r="R39" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="S39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="T39" s="21">
-        <v>44370</v>
+        <v>44394</v>
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>44.6</v>
-      </c>
-      <c r="V39" s="31">
-        <v>32.266525268554702</v>
+        <v>76.02</v>
+      </c>
+      <c r="V39" s="32">
+        <v>32.401954650878899</v>
       </c>
       <c r="W39">
         <v>32.260666666666665</v>
       </c>
       <c r="X39">
-        <v>25.228999999999999</v>
-      </c>
-      <c r="Y39" s="31">
-        <v>6.9600501060485804</v>
+        <v>25.162001</v>
+      </c>
+      <c r="Y39" s="32">
+        <v>7.3073692321777299</v>
       </c>
       <c r="Z39">
-        <v>54.6</v>
+        <v>86.02</v>
       </c>
       <c r="AA39">
-        <v>2189.6671867048258</v>
+        <v>2196.7462580299784</v>
       </c>
       <c r="AB39">
-        <v>2081.0858735386732</v>
+        <v>2085.8967697253847</v>
       </c>
       <c r="AC39" s="25">
-        <v>6.960050106048584</v>
+        <v>7.3073692321777344</v>
       </c>
       <c r="AD39" s="24">
-        <v>54.599998474121094</v>
+        <v>86.019996643066406</v>
       </c>
       <c r="AE39" s="25">
-        <v>7.9193817236154702</v>
+        <v>7.9185252258409706</v>
       </c>
       <c r="AF39" s="24">
-        <v>515.57213649180255</v>
+        <v>517.66124980698521</v>
       </c>
       <c r="AG39" s="24">
-        <v>517.64551505566158</v>
+        <v>519.73354054620484</v>
       </c>
       <c r="AH39" s="24">
-        <v>1966.6496051520644</v>
+        <v>1970.1204535324223</v>
       </c>
       <c r="AI39" s="24">
-        <v>88.953779889335337</v>
+        <v>90.497318397336841</v>
       </c>
       <c r="AJ39" s="24">
-        <v>25.482542743043066</v>
+        <v>25.278902613860062</v>
       </c>
       <c r="AK39" s="24">
-        <v>44.266318261786402</v>
+        <v>44.755435285061054</v>
       </c>
       <c r="AL39" s="24">
-        <v>0.85596403870268289</v>
+        <v>0.88816241544023999</v>
       </c>
       <c r="AM39" s="24">
         <v>0</v>
@@ -6755,16 +6766,16 @@
         <v>0</v>
       </c>
       <c r="AO39" s="25">
-        <v>15.462897893143221</v>
+        <v>15.362890465185451</v>
       </c>
       <c r="AP39" s="26">
-        <v>2.1306212896139911</v>
+        <v>2.1545739800601793</v>
       </c>
       <c r="AQ39" s="26">
-        <v>1.3423912110218352</v>
+        <v>1.3586731610001321</v>
       </c>
       <c r="AR39" s="24">
-        <v>522.70465757401382</v>
+        <v>524.93672293682334</v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.35">
@@ -6820,68 +6831,68 @@
         <v>0.40895122289657598</v>
       </c>
       <c r="R40" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T40" s="21">
-        <v>44370</v>
+        <v>44394</v>
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>23.36</v>
-      </c>
-      <c r="V40" s="31">
-        <v>32.298500061035199</v>
+        <v>26.340000000000003</v>
+      </c>
+      <c r="V40" s="32">
+        <v>31.973804473876999</v>
       </c>
       <c r="W40">
-        <v>32.260666666666665</v>
+        <v>31.560666666666673</v>
       </c>
       <c r="X40">
-        <v>25.268000000000001</v>
-      </c>
-      <c r="Y40" s="31">
-        <v>9.6168346405029297</v>
+        <v>25.186001000000001</v>
+      </c>
+      <c r="Y40" s="32">
+        <v>12.188024520874</v>
       </c>
       <c r="Z40">
-        <v>33.36</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="AA40">
-        <v>2196.1624584240235</v>
+        <v>2137.5307965738757</v>
       </c>
       <c r="AB40">
-        <v>2024.347417480011</v>
+        <v>1947.0839245159696</v>
       </c>
       <c r="AC40" s="25">
-        <v>9.6168346405029297</v>
+        <v>12.188024520874023</v>
       </c>
       <c r="AD40" s="24">
-        <v>33.360000610351563</v>
+        <v>36.340000152587891</v>
       </c>
       <c r="AE40" s="25">
-        <v>8.043427293005573</v>
+        <v>8.0611390950417228</v>
       </c>
       <c r="AF40" s="24">
-        <v>381.233654488338</v>
+        <v>357.95779141590339</v>
       </c>
       <c r="AG40" s="24">
-        <v>382.71438993746079</v>
+        <v>359.30261215458489</v>
       </c>
       <c r="AH40" s="24">
-        <v>1880.2685990826485</v>
+        <v>1793.7185583014814</v>
       </c>
       <c r="AI40" s="24">
-        <v>126.86714118320566</v>
+        <v>138.44475225084005</v>
       </c>
       <c r="AJ40" s="24">
-        <v>17.211687966577202</v>
+        <v>14.920665567435231</v>
       </c>
       <c r="AK40" s="24">
-        <v>60.672053608917437</v>
+        <v>64.933915965718313</v>
       </c>
       <c r="AL40" s="24">
-        <v>1.4965185865003219</v>
+        <v>1.9976986002374093</v>
       </c>
       <c r="AM40" s="24">
         <v>0</v>
@@ -6890,16 +6901,16 @@
         <v>0</v>
       </c>
       <c r="AO40" s="25">
-        <v>12.766308543812766</v>
+        <v>11.912934131848617</v>
       </c>
       <c r="AP40" s="26">
-        <v>3.0520726093316859</v>
+        <v>3.3459715530886038</v>
       </c>
       <c r="AQ40" s="26">
-        <v>1.9303713150159958</v>
+        <v>2.1223405047069974</v>
       </c>
       <c r="AR40" s="24">
-        <v>387.20327930169287</v>
+        <v>364.31601295442698</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.35">
@@ -6955,68 +6966,68 @@
         <v>0.40895122289657598</v>
       </c>
       <c r="R41" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T41" s="21">
         <v>44394</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>23.57</v>
+        <v>26.340000000000003</v>
       </c>
       <c r="V41" s="32">
-        <v>31.920093536376999</v>
+        <v>31.973804473876999</v>
       </c>
       <c r="W41">
-        <v>31.494</v>
+        <v>31.560666666666673</v>
       </c>
       <c r="X41">
-        <v>25.257999000000002</v>
+        <v>25.186001000000001</v>
       </c>
       <c r="Y41" s="32">
-        <v>12.5191087722778</v>
+        <v>12.188024520874</v>
       </c>
       <c r="Z41">
-        <v>33.57</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="AA41">
-        <v>2125.2248837773827</v>
+        <v>2138.8239732334046</v>
       </c>
       <c r="AB41">
-        <v>1963.5843136049209</v>
+        <v>1950.2646118545363</v>
       </c>
       <c r="AC41" s="25">
-        <v>12.519108772277832</v>
+        <v>12.188024520874023</v>
       </c>
       <c r="AD41" s="24">
-        <v>33.569999694824219</v>
+        <v>36.340000152587891</v>
       </c>
       <c r="AE41" s="25">
-        <v>7.9895204029493803</v>
+        <v>8.0566293524669081</v>
       </c>
       <c r="AF41" s="24">
-        <v>430.89161641687679</v>
+        <v>362.52235184992287</v>
       </c>
       <c r="AG41" s="24">
-        <v>432.50356442283925</v>
+        <v>363.88432130189358</v>
       </c>
       <c r="AH41" s="24">
-        <v>1824.8979382621833</v>
+        <v>1797.825466032629</v>
       </c>
       <c r="AI41" s="24">
-        <v>120.90727340580568</v>
+        <v>137.32828050564024</v>
       </c>
       <c r="AJ41" s="24">
-        <v>17.779239336873772</v>
+        <v>15.110929004442854</v>
       </c>
       <c r="AK41" s="24">
-        <v>56.774408806108056</v>
+        <v>64.373822387139171</v>
       </c>
       <c r="AL41" s="24">
-        <v>1.7483419853959448</v>
+        <v>1.9770616989824856</v>
       </c>
       <c r="AM41" s="24">
         <v>0</v>
@@ -7025,16 +7036,16 @@
         <v>0</v>
       </c>
       <c r="AO41" s="25">
-        <v>12.846084445064298</v>
+        <v>11.977136412673348</v>
       </c>
       <c r="AP41" s="26">
-        <v>2.9253418946599741</v>
+        <v>3.3189883512082083</v>
       </c>
       <c r="AQ41" s="26">
-        <v>1.8563264694925383</v>
+        <v>2.1052251343612491</v>
       </c>
       <c r="AR41" s="24">
-        <v>438.6733128442832</v>
+        <v>368.96165134557288</v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.35">
@@ -7090,68 +7101,68 @@
         <v>2.4065303802490199</v>
       </c>
       <c r="R42" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="S42" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T42" s="21">
         <v>44394</v>
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>2.0199999999999996</v>
+        <v>1.7799999999999994</v>
       </c>
       <c r="V42" s="32">
-        <v>30.4202365875244</v>
+        <v>30.396377563476602</v>
       </c>
       <c r="W42">
-        <v>30.560666666666673</v>
+        <v>30.894000000000002</v>
       </c>
       <c r="X42">
-        <v>25.25</v>
+        <v>25.100999999999999</v>
       </c>
       <c r="Y42" s="32">
-        <v>21.8410835266113</v>
+        <v>19.733684539794901</v>
       </c>
       <c r="Z42">
-        <v>12.02</v>
+        <v>11.78</v>
       </c>
       <c r="AA42">
-        <v>2057.1996728754057</v>
+        <v>2071.9797719486078</v>
       </c>
       <c r="AB42">
-        <v>1805.8665360167884</v>
+        <v>1857.9542207722689</v>
       </c>
       <c r="AC42" s="25">
-        <v>21.841083526611328</v>
+        <v>19.733684539794922</v>
       </c>
       <c r="AD42" s="24">
-        <v>12.020000457763672</v>
+        <v>11.779999732971191</v>
       </c>
       <c r="AE42" s="25">
-        <v>8.0608635646897024</v>
+        <v>8.0107959699931985</v>
       </c>
       <c r="AF42" s="24">
-        <v>346.56171942023883</v>
+        <v>401.48036609076019</v>
       </c>
       <c r="AG42" s="24">
-        <v>347.71449082418059</v>
+        <v>402.85120396686534</v>
       </c>
       <c r="AH42" s="24">
-        <v>1614.743475624304</v>
+        <v>1688.8722964035433</v>
       </c>
       <c r="AI42" s="24">
-        <v>180.18510657087472</v>
+        <v>155.67945252031691</v>
       </c>
       <c r="AJ42" s="24">
-        <v>10.938020613058402</v>
+        <v>13.402444914080435</v>
       </c>
       <c r="AK42" s="24">
-        <v>77.186055429753068</v>
+        <v>68.131966723672036</v>
       </c>
       <c r="AL42" s="24">
-        <v>4.9087292812224703</v>
+        <v>3.6264777175050829</v>
       </c>
       <c r="AM42" s="24">
         <v>0</v>
@@ -7160,16 +7171,16 @@
         <v>0</v>
       </c>
       <c r="AO42" s="25">
-        <v>9.9360091486714825</v>
+        <v>10.881162549629217</v>
       </c>
       <c r="AP42" s="26">
-        <v>4.4552254288971112</v>
+        <v>3.826068750820026</v>
       </c>
       <c r="AQ42" s="26">
-        <v>2.8805778788455072</v>
+        <v>2.4626349320108383</v>
       </c>
       <c r="AR42" s="24">
-        <v>356.77531145744229</v>
+        <v>412.04044928387998</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.35">
@@ -7225,68 +7236,68 @@
         <v>0.67465102672576904</v>
       </c>
       <c r="R43" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="S43" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T43" s="21">
         <v>44394</v>
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>46.9</v>
+        <v>30.090000000000003</v>
       </c>
       <c r="V43" s="32">
-        <v>32.212856292724602</v>
-      </c>
-      <c r="W43">
-        <v>32.160666666666671</v>
-      </c>
-      <c r="X43">
-        <v>25.210999999999999</v>
+        <v>32.094448089599602</v>
+      </c>
+      <c r="W43" s="27">
+        <v>32.060666666666677</v>
+      </c>
+      <c r="X43" s="29">
+        <v>25.124001</v>
       </c>
       <c r="Y43" s="32">
-        <v>8.5952644348144496</v>
+        <v>9.6824779510497994</v>
       </c>
       <c r="Z43">
-        <v>56.9</v>
+        <v>40.090000000000003</v>
       </c>
       <c r="AA43">
-        <v>2187.5254484183729</v>
+        <v>2182.0810295967344</v>
       </c>
       <c r="AB43">
-        <v>2092.9177329087729</v>
+        <v>2079.4417191675511</v>
       </c>
       <c r="AC43" s="25">
-        <v>8.5952644348144531</v>
+        <v>9.6824779510498047</v>
       </c>
       <c r="AD43" s="24">
-        <v>56.900001525878906</v>
+        <v>40.090000152587891</v>
       </c>
       <c r="AE43" s="25">
-        <v>7.8526702950227127</v>
+        <v>7.8616834674901188</v>
       </c>
       <c r="AF43" s="24">
-        <v>615.96178573614498</v>
+        <v>605.74836703023061</v>
       </c>
       <c r="AG43" s="24">
-        <v>618.38631268158611</v>
+        <v>608.09912274745795</v>
       </c>
       <c r="AH43" s="24">
-        <v>1981.7282936905406</v>
+        <v>1964.9949531862533</v>
       </c>
       <c r="AI43" s="24">
-        <v>82.392255149383288</v>
+        <v>87.127036866519234</v>
       </c>
       <c r="AJ43" s="24">
-        <v>28.797133763077984</v>
+        <v>27.319687726186803</v>
       </c>
       <c r="AK43" s="24">
-        <v>40.158063760660802</v>
+        <v>41.857348473249886</v>
       </c>
       <c r="AL43" s="24">
-        <v>0.86881010352319288</v>
+        <v>0.98873574875643389</v>
       </c>
       <c r="AM43" s="24">
         <v>0</v>
@@ -7295,16 +7306,16 @@
         <v>0</v>
       </c>
       <c r="AO43" s="25">
-        <v>15.988373803405407</v>
+        <v>15.550968793328781</v>
       </c>
       <c r="AP43" s="26">
-        <v>1.9740478557039238</v>
+        <v>2.0958073849139125</v>
       </c>
       <c r="AQ43" s="26">
-        <v>1.2465261791687019</v>
+        <v>1.3251619469925651</v>
       </c>
       <c r="AR43" s="24">
-        <v>625.15131278163437</v>
+        <v>615.26425801066853</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.35">
@@ -7360,68 +7371,68 @@
         <v>0.61650556325912498</v>
       </c>
       <c r="R44" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="S44" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T44" s="21">
-        <v>44370</v>
+        <v>44394</v>
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
-        <v>1.6300000000000008</v>
-      </c>
-      <c r="V44" s="31">
-        <v>31.3679504394531</v>
+        <v>14</v>
+      </c>
+      <c r="V44" s="32">
+        <v>31.510738372802699</v>
       </c>
       <c r="W44">
-        <v>31.460666666666668</v>
+        <v>31.360666666666663</v>
       </c>
       <c r="X44">
-        <v>25.224001000000001</v>
-      </c>
-      <c r="Y44" s="31">
-        <v>16.5427341461182</v>
+        <v>24.986999999999998</v>
+      </c>
+      <c r="Y44" s="32">
+        <v>11.8032140731812</v>
       </c>
       <c r="Z44">
-        <v>11.63</v>
+        <v>24</v>
       </c>
       <c r="AA44">
-        <v>2122.6727976182938</v>
+        <v>2134.7626248380839</v>
       </c>
       <c r="AB44">
-        <v>1922.5081743769219</v>
+        <v>2026.859039801541</v>
       </c>
       <c r="AC44" s="25">
-        <v>16.542734146118164</v>
+        <v>11.803214073181152</v>
       </c>
       <c r="AD44" s="24">
-        <v>11.630000114440918</v>
+        <v>24</v>
       </c>
       <c r="AE44" s="25">
-        <v>8.0165376763254237</v>
+        <v>7.8566101734818421</v>
       </c>
       <c r="AF44" s="24">
-        <v>403.95213437510131</v>
+        <v>609.90560720630788</v>
       </c>
       <c r="AG44" s="24">
-        <v>405.38776743383102</v>
+        <v>612.2083648984343</v>
       </c>
       <c r="AH44" s="24">
-        <v>1761.2558718666012</v>
+        <v>1910.9933271145264</v>
       </c>
       <c r="AI44" s="24">
-        <v>146.51603242093643</v>
+        <v>90.098585935725751</v>
       </c>
       <c r="AJ44" s="24">
-        <v>14.73633173326586</v>
+        <v>25.767059335273565</v>
       </c>
       <c r="AK44" s="24">
-        <v>65.646394178907542</v>
+        <v>42.391236560342584</v>
       </c>
       <c r="AL44" s="24">
-        <v>2.7482266793220984</v>
+        <v>1.195139454463565</v>
       </c>
       <c r="AM44" s="24">
         <v>0</v>
@@ -7430,16 +7441,16 @@
         <v>0</v>
       </c>
       <c r="AO44" s="25">
-        <v>11.469652224107364</v>
+        <v>15.113523382987871</v>
       </c>
       <c r="AP44" s="26">
-        <v>3.5718602487616717</v>
+        <v>2.1843590356274847</v>
       </c>
       <c r="AQ44" s="26">
-        <v>2.2850474222206545</v>
+        <v>1.3835948278362253</v>
       </c>
       <c r="AR44" s="24">
-        <v>412.92085412117564</v>
+        <v>620.53453652396695</v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.35">
@@ -7495,68 +7506,68 @@
         <v>0.61650556325912498</v>
       </c>
       <c r="R45" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="S45" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="T45" s="21">
-        <v>44370</v>
+        <v>44394</v>
       </c>
       <c r="U45">
         <f t="shared" si="0"/>
-        <v>29.47</v>
-      </c>
-      <c r="V45" s="31">
-        <v>32.1697998046875</v>
+        <v>14</v>
+      </c>
+      <c r="V45" s="32">
+        <v>31.510738372802699</v>
       </c>
       <c r="W45">
-        <v>32.160666666666671</v>
+        <v>31.360666666666663</v>
       </c>
       <c r="X45">
-        <v>25.294001000000002</v>
-      </c>
-      <c r="Y45" s="31">
-        <v>8.1846790313720703</v>
+        <v>25.172999999999998</v>
+      </c>
+      <c r="Y45" s="32">
+        <v>11.8032140731812</v>
       </c>
       <c r="Z45">
-        <v>39.47</v>
+        <v>24</v>
       </c>
       <c r="AA45">
-        <v>2183.6031032828091</v>
+        <v>2133.691755694857</v>
       </c>
       <c r="AB45">
-        <v>2055.5910127430511</v>
+        <v>2006.8064085758306</v>
       </c>
       <c r="AC45" s="25">
-        <v>8.1846790313720703</v>
+        <v>11.803214073181152</v>
       </c>
       <c r="AD45" s="24">
-        <v>39.470001220703125</v>
+        <v>24</v>
       </c>
       <c r="AE45" s="25">
-        <v>7.9569520789171122</v>
+        <v>7.9108246705009888</v>
       </c>
       <c r="AF45" s="24">
-        <v>471.49532578752837</v>
+        <v>530.65883845090195</v>
       </c>
       <c r="AG45" s="24">
-        <v>473.3612055725938</v>
+        <v>532.66239229218399</v>
       </c>
       <c r="AH45" s="24">
-        <v>1932.9904720275365</v>
+        <v>1883.7637856730373</v>
       </c>
       <c r="AI45" s="24">
-        <v>100.24731458037751</v>
+        <v>100.62357543599828</v>
       </c>
       <c r="AJ45" s="24">
-        <v>22.353185696430369</v>
+        <v>22.419072091800494</v>
       </c>
       <c r="AK45" s="24">
-        <v>49.072037620239563</v>
+        <v>47.339209638414545</v>
       </c>
       <c r="AL45" s="24">
-        <v>1.0572225295708615</v>
+        <v>1.3540449468315185</v>
       </c>
       <c r="AM45" s="24">
         <v>0</v>
@@ -7565,16 +7576,16 @@
         <v>0</v>
       </c>
       <c r="AO45" s="25">
-        <v>14.516879292248841</v>
+        <v>14.289185249750094</v>
       </c>
       <c r="AP45" s="26">
-        <v>2.4096014423223453</v>
+        <v>2.4395279228640225</v>
       </c>
       <c r="AQ45" s="26">
-        <v>1.5202709154198415</v>
+        <v>1.5452213493223235</v>
       </c>
       <c r="AR45" s="24">
-        <v>478.39583234496706</v>
+        <v>539.90672077735144</v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.35">
@@ -7630,68 +7641,68 @@
         <v>2.2455575466156001</v>
       </c>
       <c r="R46" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="S46" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="T46" s="21">
-        <v>44370</v>
+        <v>44394</v>
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
-        <v>13.280000000000001</v>
-      </c>
-      <c r="V46" s="31">
-        <v>31.7198886871338</v>
-      </c>
-      <c r="W46">
-        <v>31.760666666666669</v>
-      </c>
-      <c r="X46">
-        <v>25.289000000000001</v>
-      </c>
-      <c r="Y46" s="31">
-        <v>13.081823348999</v>
+        <v>1.7100000000000009</v>
+      </c>
+      <c r="V46" s="32">
+        <v>30.251529693603501</v>
+      </c>
+      <c r="W46" s="27">
+        <v>30.960666666666668</v>
+      </c>
+      <c r="X46" s="29">
+        <v>25.134001000000001</v>
+      </c>
+      <c r="Y46" s="32">
+        <v>18.773841857910199</v>
       </c>
       <c r="Z46">
-        <v>23.28</v>
+        <v>11.71</v>
       </c>
       <c r="AA46">
-        <v>2152.0159191722832</v>
+        <v>2085.1523599504712</v>
       </c>
       <c r="AB46">
-        <v>1975.7129230434448</v>
+        <v>1954.9096341008408</v>
       </c>
       <c r="AC46" s="25">
-        <v>13.081823348999023</v>
+        <v>18.773841857910156</v>
       </c>
       <c r="AD46" s="24">
-        <v>23.280000686645508</v>
+        <v>11.710000038146973</v>
       </c>
       <c r="AE46" s="25">
-        <v>8.0095539413630874</v>
+        <v>7.8213885979110032</v>
       </c>
       <c r="AF46" s="24">
-        <v>414.22874298289776</v>
+        <v>667.72427545348933</v>
       </c>
       <c r="AG46" s="24">
-        <v>415.76720099545378</v>
+        <v>670.03169103486846</v>
       </c>
       <c r="AH46" s="24">
-        <v>1828.3107705433094</v>
+        <v>1827.0869914320717</v>
       </c>
       <c r="AI46" s="24">
-        <v>130.63672299554401</v>
+        <v>104.9284706369539</v>
       </c>
       <c r="AJ46" s="24">
-        <v>16.765338524583115</v>
+        <v>22.894184814581255</v>
       </c>
       <c r="AK46" s="24">
-        <v>60.498541592721999</v>
+        <v>46.077311171323423</v>
       </c>
       <c r="AL46" s="24">
-        <v>1.9431324444587539</v>
+        <v>2.1464642430694632</v>
       </c>
       <c r="AM46" s="24">
         <v>0</v>
@@ -7700,16 +7711,16 @@
         <v>0</v>
       </c>
       <c r="AO46" s="25">
-        <v>12.387366718752114</v>
+        <v>13.696460770789953</v>
       </c>
       <c r="AP46" s="26">
-        <v>3.1626858011002237</v>
+        <v>2.5738287717070918</v>
       </c>
       <c r="AQ46" s="26">
-        <v>2.0102924841912229</v>
+        <v>1.6529947114949584</v>
       </c>
       <c r="AR46" s="24">
-        <v>421.92339449143753</v>
+        <v>684.40863767698306</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.35">
@@ -7721,8 +7732,12 @@
       <c r="D47" s="8">
         <v>44358</v>
       </c>
-      <c r="E47"/>
-      <c r="F47"/>
+      <c r="E47" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F47" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G47" s="11">
         <v>1</v>
       </c>
@@ -7741,68 +7756,67 @@
       </c>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="S47" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="T47" s="21">
-        <v>44394</v>
+        <v>44365</v>
       </c>
       <c r="U47">
-        <f t="shared" si="0"/>
-        <v>13.29</v>
-      </c>
-      <c r="V47" s="32">
-        <v>31.3125400543213</v>
-      </c>
-      <c r="W47">
-        <v>31.527333333333335</v>
+        <v>1</v>
+      </c>
+      <c r="V47" s="22">
+        <v>22.9</v>
+      </c>
+      <c r="W47" s="27">
+        <v>25.094000000000005</v>
       </c>
       <c r="X47">
-        <v>25.374001</v>
-      </c>
-      <c r="Y47" s="32">
-        <v>16.800390243530298</v>
+        <v>25.129000000000001</v>
+      </c>
+      <c r="Y47" s="30">
+        <v>22.25</v>
       </c>
       <c r="Z47">
-        <v>23.29</v>
+        <v>11</v>
       </c>
       <c r="AA47">
-        <v>2127.0707595036474</v>
+        <v>1781.4318629483237</v>
       </c>
       <c r="AB47">
-        <v>1931.3181832548198</v>
+        <v>1773.4164621228254</v>
       </c>
       <c r="AC47" s="25">
-        <v>16.800390243530273</v>
+        <v>22.25</v>
       </c>
       <c r="AD47" s="24">
-        <v>23.280000686645508</v>
+        <v>11</v>
       </c>
       <c r="AE47" s="25">
-        <v>8.0006773683137347</v>
+        <v>7.4446427521960068</v>
       </c>
       <c r="AF47" s="24">
-        <v>421.72628691304323</v>
+        <v>1545.3026073240201</v>
       </c>
       <c r="AG47" s="24">
-        <v>423.22022007698831</v>
+        <v>1550.4168750637268</v>
       </c>
       <c r="AH47" s="24">
-        <v>1772.0717951823915</v>
+        <v>1683.9843043923229</v>
       </c>
       <c r="AI47" s="24">
-        <v>143.9838848212076</v>
+        <v>39.769622677256777</v>
       </c>
       <c r="AJ47" s="24">
-        <v>15.262518327101336</v>
+        <v>49.662603271330255</v>
       </c>
       <c r="AK47" s="24">
-        <v>64.320074789146815</v>
+        <v>16.847709649402525</v>
       </c>
       <c r="AL47" s="24">
-        <v>2.7214546679268361</v>
+        <v>1.0972116581311813</v>
       </c>
       <c r="AM47" s="24">
         <v>0</v>
@@ -7811,16 +7825,16 @@
         <v>0</v>
       </c>
       <c r="AO47" s="25">
-        <v>11.60379964532107</v>
+        <v>17.464662670303873</v>
       </c>
       <c r="AP47" s="26">
-        <v>3.5028816278528194</v>
+        <v>1.0233285352641932</v>
       </c>
       <c r="AQ47" s="26">
-        <v>2.2429397034993772</v>
+        <v>0.64851052035063117</v>
       </c>
       <c r="AR47" s="24">
-        <v>431.21671251901506</v>
+        <v>1591.992081629619</v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.35">
@@ -7832,8 +7846,12 @@
       <c r="D48" s="8">
         <v>44358</v>
       </c>
-      <c r="E48"/>
-      <c r="F48"/>
+      <c r="E48" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F48" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G48" s="11">
         <v>1</v>
       </c>
@@ -7852,68 +7870,67 @@
       </c>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="S48" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T48" s="21">
-        <v>44394</v>
+        <v>44365</v>
       </c>
       <c r="U48">
-        <f t="shared" si="0"/>
-        <v>2.1999999999999993</v>
-      </c>
-      <c r="V48" s="32">
-        <v>30.693523406982401</v>
-      </c>
-      <c r="W48">
-        <v>30.927333333333337</v>
+        <v>2.6</v>
+      </c>
+      <c r="V48" s="22">
+        <v>22.9</v>
+      </c>
+      <c r="W48" s="27">
+        <v>24.927333333333333</v>
       </c>
       <c r="X48">
-        <v>25.358000000000001</v>
-      </c>
-      <c r="Y48" s="32">
-        <v>20.815656661987301</v>
+        <v>25.210999999999999</v>
+      </c>
+      <c r="Y48" s="30">
+        <v>22.25</v>
       </c>
       <c r="Z48">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="AA48">
-        <v>2082.6503426479326</v>
+        <v>1772.4664685943635</v>
       </c>
       <c r="AB48">
-        <v>1828.7814401120581</v>
+        <v>1759.8886373135379</v>
       </c>
       <c r="AC48" s="25">
-        <v>20.815656661987305</v>
+        <v>22.25</v>
       </c>
       <c r="AD48" s="24">
-        <v>12.199999809265137</v>
+        <v>12.600000381469727</v>
       </c>
       <c r="AE48" s="25">
-        <v>8.0728074989902954</v>
+        <v>7.4649317654867344</v>
       </c>
       <c r="AF48" s="24">
-        <v>339.19626567737066</v>
+        <v>1465.5045867579495</v>
       </c>
       <c r="AG48" s="24">
-        <v>340.33895575914948</v>
+        <v>1470.3547583650677</v>
       </c>
       <c r="AH48" s="24">
-        <v>1635.9902802853171</v>
+        <v>1671.5859401814305</v>
       </c>
       <c r="AI48" s="24">
-        <v>181.80440616561506</v>
+        <v>41.16294073100439</v>
       </c>
       <c r="AJ48" s="24">
-        <v>10.986759059753359</v>
+        <v>47.13983978621981</v>
       </c>
       <c r="AK48" s="24">
-        <v>78.433678207439272</v>
+        <v>17.444233498725353</v>
       </c>
       <c r="AL48" s="24">
-        <v>4.6261782178840631</v>
+        <v>1.1453656420484377</v>
       </c>
       <c r="AM48" s="24">
         <v>0</v>
@@ -7922,16 +7939,16 @@
         <v>0</v>
       </c>
       <c r="AO48" s="25">
-        <v>9.9619501773613717</v>
+        <v>17.49197084645872</v>
       </c>
       <c r="AP48" s="26">
-        <v>4.4749331368884997</v>
+        <v>1.0601802666585243</v>
       </c>
       <c r="AQ48" s="26">
-        <v>2.8885921149299363</v>
+        <v>0.6713495866109298</v>
       </c>
       <c r="AR48" s="24">
-        <v>348.65222880226457</v>
+        <v>1509.7867299481809</v>
       </c>
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.35">
@@ -7943,8 +7960,12 @@
       <c r="D49" s="8">
         <v>44358</v>
       </c>
-      <c r="E49"/>
-      <c r="F49"/>
+      <c r="E49" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F49" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G49" s="11">
         <v>3</v>
       </c>
@@ -7963,68 +7984,68 @@
       </c>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="S49" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="T49" s="21">
-        <v>44394</v>
+        <v>44365</v>
       </c>
       <c r="U49">
-        <f t="shared" si="0"/>
-        <v>28.15</v>
-      </c>
-      <c r="V49" s="32">
-        <v>32.099300384521499</v>
-      </c>
-      <c r="W49">
-        <v>32.060666666666677</v>
+        <f>Z49-10</f>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="V49" s="22">
+        <v>22.9</v>
+      </c>
+      <c r="W49" s="27">
+        <v>25.094000000000005</v>
       </c>
       <c r="X49">
-        <v>25.304001</v>
-      </c>
-      <c r="Y49" s="32">
-        <v>10.001736640930201</v>
+        <v>25.210999999999999</v>
+      </c>
+      <c r="Y49" s="30">
+        <v>22.25</v>
       </c>
       <c r="Z49">
-        <v>38.15</v>
+        <v>12.6</v>
       </c>
       <c r="AA49">
-        <v>2176.6304803392868</v>
+        <v>1776.8591115869847</v>
       </c>
       <c r="AB49">
-        <v>2053.7357404477057</v>
+        <v>1766.825461764616</v>
       </c>
       <c r="AC49" s="25">
-        <v>10.001736640930176</v>
+        <v>22.25</v>
       </c>
       <c r="AD49" s="24">
-        <v>38.150001525878906</v>
+        <v>12.600000381469727</v>
       </c>
       <c r="AE49" s="25">
-        <v>7.915249393098728</v>
+        <v>7.4526889034995216</v>
       </c>
       <c r="AF49" s="24">
-        <v>528.13250255425623</v>
+        <v>1511.2209988916488</v>
       </c>
       <c r="AG49" s="24">
-        <v>530.17356032133091</v>
+        <v>1516.2224715906323</v>
       </c>
       <c r="AH49" s="24">
-        <v>1931.9327355479313</v>
+        <v>1677.8872433458109</v>
       </c>
       <c r="AI49" s="24">
-        <v>98.23501637768446</v>
+        <v>40.370904859142684</v>
       </c>
       <c r="AJ49" s="24">
-        <v>23.568025810094582</v>
+        <v>48.567295860080584</v>
       </c>
       <c r="AK49" s="24">
-        <v>47.084582904318566</v>
+        <v>17.148206327192995</v>
       </c>
       <c r="AL49" s="24">
-        <v>1.1553363219087975</v>
+        <v>1.1178618193010477</v>
       </c>
       <c r="AM49" s="24">
         <v>0</v>
@@ -8033,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="AO49" s="25">
-        <v>14.629960089109804</v>
+        <v>17.463718677917875</v>
       </c>
       <c r="AP49" s="26">
-        <v>2.3640909498641314</v>
+        <v>1.0385503292232763</v>
       </c>
       <c r="AQ49" s="26">
-        <v>1.4955674053895789</v>
+        <v>0.65816898124344825</v>
       </c>
       <c r="AR49" s="24">
-        <v>536.55738721841226</v>
+        <v>1556.8807380672772</v>
       </c>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.35">
@@ -8054,8 +8075,12 @@
       <c r="D50" s="8">
         <v>44365</v>
       </c>
-      <c r="E50"/>
-      <c r="F50"/>
+      <c r="E50" s="43">
+        <v>41.645800000000001</v>
+      </c>
+      <c r="F50" s="43">
+        <v>-70.636799999999994</v>
+      </c>
       <c r="G50" s="11">
         <v>2</v>
       </c>
@@ -8074,68 +8099,68 @@
       </c>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="S50" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T50" s="21">
-        <v>44370</v>
+        <v>44365</v>
       </c>
       <c r="U50">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U50:U52" si="1">Z50-10</f>
         <v>2</v>
       </c>
-      <c r="V50" s="31">
-        <v>31.697078704833999</v>
-      </c>
-      <c r="W50">
-        <v>31.760666666666669</v>
+      <c r="V50" s="22">
+        <v>29.9</v>
+      </c>
+      <c r="W50" s="27">
+        <v>30.260666666666665</v>
       </c>
       <c r="X50">
-        <v>25.26</v>
-      </c>
-      <c r="Y50" s="31">
-        <v>14.4788913726807</v>
+        <v>25.118998999999999</v>
+      </c>
+      <c r="Y50" s="30">
+        <v>20.99</v>
       </c>
       <c r="Z50">
         <v>12</v>
       </c>
       <c r="AA50">
-        <v>2146.3456539624653</v>
+        <v>2024.6582088814378</v>
       </c>
       <c r="AB50">
-        <v>1945.2377945198991</v>
+        <v>1931.8750957347752</v>
       </c>
       <c r="AC50" s="25">
-        <v>14.478891372680664</v>
+        <v>20.989999771118164</v>
       </c>
       <c r="AD50" s="24">
         <v>12</v>
       </c>
       <c r="AE50" s="25">
-        <v>8.0447119782092358</v>
+        <v>7.6946626964702984</v>
       </c>
       <c r="AF50" s="24">
-        <v>377.36223739265228</v>
+        <v>904.16067557604174</v>
       </c>
       <c r="AG50" s="24">
-        <v>378.73896104407453</v>
+        <v>907.20004671078482</v>
       </c>
       <c r="AH50" s="24">
-        <v>1784.1596725147247</v>
+        <v>1818.8216186783957</v>
       </c>
       <c r="AI50" s="24">
-        <v>146.45307836677455</v>
+        <v>83.802281395566339</v>
       </c>
       <c r="AJ50" s="24">
-        <v>14.624994649404046</v>
+        <v>29.251229156358487</v>
       </c>
       <c r="AK50" s="24">
-        <v>66.874349000337361</v>
+        <v>36.309791566960406</v>
       </c>
       <c r="AL50" s="24">
-        <v>2.4148142115775997</v>
+        <v>1.9429007698940883</v>
       </c>
       <c r="AM50" s="24">
         <v>0</v>
@@ -8144,16 +8169,16 @@
         <v>0</v>
       </c>
       <c r="AO50" s="25">
-        <v>11.552505738262951</v>
+        <v>14.956767622139576</v>
       </c>
       <c r="AP50" s="26">
-        <v>3.556263691960222</v>
+        <v>2.0731219501776144</v>
       </c>
       <c r="AQ50" s="26">
-        <v>2.2666110847404224</v>
+        <v>1.3361488733127</v>
       </c>
       <c r="AR50" s="24">
-        <v>384.88888958751369</v>
+        <v>929.61289940631332</v>
       </c>
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.35">
@@ -8165,8 +8190,12 @@
       <c r="D51" s="8">
         <v>44365</v>
       </c>
-      <c r="E51"/>
-      <c r="F51"/>
+      <c r="E51" s="43">
+        <v>41.645800000000001</v>
+      </c>
+      <c r="F51" s="43">
+        <v>-70.636799999999994</v>
+      </c>
       <c r="G51" s="11">
         <v>2</v>
       </c>
@@ -8185,68 +8214,68 @@
       </c>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="S51" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T51" s="21">
-        <v>44370</v>
+        <v>44365</v>
       </c>
       <c r="U51">
-        <f t="shared" si="0"/>
-        <v>78.33</v>
-      </c>
-      <c r="V51" s="31">
-        <v>32.480873107910199</v>
-      </c>
-      <c r="W51">
-        <v>32.36066666666666</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V51" s="22">
+        <v>29.9</v>
+      </c>
+      <c r="W51" s="27">
+        <v>30.394000000000002</v>
       </c>
       <c r="X51">
-        <v>25.34</v>
-      </c>
-      <c r="Y51" s="31">
-        <v>6.3087358474731401</v>
+        <v>25.129000000000001</v>
+      </c>
+      <c r="Y51" s="30">
+        <v>20.99</v>
       </c>
       <c r="Z51">
-        <v>88.33</v>
+        <v>12</v>
       </c>
       <c r="AA51">
-        <v>2199.8124479992157</v>
+        <v>2029.8913575947427</v>
       </c>
       <c r="AB51">
-        <v>2087.0393988641554</v>
+        <v>1937.7439340166991</v>
       </c>
       <c r="AC51" s="25">
-        <v>6.3087358474731445</v>
+        <v>20.989999771118164</v>
       </c>
       <c r="AD51" s="24">
-        <v>88.330001831054688</v>
+        <v>12</v>
       </c>
       <c r="AE51" s="25">
-        <v>7.9388403940028365</v>
+        <v>7.6906772818635689</v>
       </c>
       <c r="AF51" s="24">
-        <v>488.86048556238114</v>
+        <v>914.85845814215691</v>
       </c>
       <c r="AG51" s="24">
-        <v>490.84339458065193</v>
+        <v>917.93379028738798</v>
       </c>
       <c r="AH51" s="24">
-        <v>1971.3035626984129</v>
+        <v>1824.5874844394025</v>
       </c>
       <c r="AI51" s="24">
-        <v>91.030319174184228</v>
+        <v>83.580236317938258</v>
       </c>
       <c r="AJ51" s="24">
-        <v>24.705525470075305</v>
+        <v>29.576137676919036</v>
       </c>
       <c r="AK51" s="24">
-        <v>45.620417450077916</v>
+        <v>36.234062601495133</v>
       </c>
       <c r="AL51" s="24">
-        <v>0.8396524230277852</v>
+        <v>1.9301463239653922</v>
       </c>
       <c r="AM51" s="24">
         <v>0</v>
@@ -8255,16 +8284,16 @@
         <v>0</v>
       </c>
       <c r="AO51" s="25">
-        <v>15.33612559570925</v>
+        <v>14.981533492266212</v>
       </c>
       <c r="AP51" s="26">
-        <v>2.1649310082285189</v>
+        <v>2.0656941097579189</v>
       </c>
       <c r="AQ51" s="26">
-        <v>1.3636537331264971</v>
+        <v>1.3319082745544371</v>
       </c>
       <c r="AR51" s="24">
-        <v>495.42804620996077</v>
+        <v>940.61014025825432</v>
       </c>
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.35">
@@ -8276,8 +8305,12 @@
       <c r="D52" s="8">
         <v>44365</v>
       </c>
-      <c r="E52"/>
-      <c r="F52"/>
+      <c r="E52" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F52" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G52" s="11">
         <v>1</v>
       </c>
@@ -8296,68 +8329,68 @@
       </c>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="S52" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T52" s="21">
-        <v>44370</v>
+        <v>44385</v>
       </c>
       <c r="U52">
-        <f t="shared" si="0"/>
-        <v>33.43</v>
-      </c>
-      <c r="V52" s="31">
-        <v>32.360382080078097</v>
-      </c>
-      <c r="W52">
-        <v>32.260666666666665</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V52" s="30">
+        <v>29.83</v>
+      </c>
+      <c r="W52" s="27">
+        <v>31.594000000000005</v>
       </c>
       <c r="X52">
-        <v>25.313998999999999</v>
-      </c>
-      <c r="Y52" s="31">
-        <v>7.3931336402893102</v>
+        <v>25.25</v>
+      </c>
+      <c r="Y52" s="30">
+        <v>23.1</v>
       </c>
       <c r="Z52">
-        <v>43.43</v>
+        <v>11</v>
       </c>
       <c r="AA52">
-        <v>2198.0492559905092</v>
+        <v>2048.1823630400995</v>
       </c>
       <c r="AB52">
-        <v>2056.3412321411693</v>
+        <v>1905.7958906137123</v>
       </c>
       <c r="AC52" s="25">
-        <v>7.3931336402893066</v>
+        <v>23.100000381469727</v>
       </c>
       <c r="AD52" s="24">
-        <v>43.430000305175781</v>
+        <v>11</v>
       </c>
       <c r="AE52" s="25">
-        <v>8.0040165574296651</v>
+        <v>7.7839255754744352</v>
       </c>
       <c r="AF52" s="24">
-        <v>418.32317837698321</v>
+        <v>720.93864087374334</v>
       </c>
       <c r="AG52" s="24">
-        <v>419.99591460173889</v>
+        <v>723.29978278298165</v>
       </c>
       <c r="AH52" s="24">
-        <v>1928.0498101469502</v>
+        <v>1771.3154162839471</v>
       </c>
       <c r="AI52" s="24">
-        <v>107.92420021828254</v>
+        <v>112.59707596401032</v>
       </c>
       <c r="AJ52" s="24">
-        <v>20.367375103607763</v>
+        <v>21.88339300201493</v>
       </c>
       <c r="AK52" s="24">
-        <v>53.073921187342066</v>
+        <v>48.723188371314002</v>
       </c>
       <c r="AL52" s="24">
-        <v>1.0872835703386312</v>
+        <v>2.966343764334832</v>
       </c>
       <c r="AM52" s="24">
         <v>0</v>
@@ -8366,16 +8399,16 @@
         <v>0</v>
       </c>
       <c r="AO52" s="25">
-        <v>14.013184195871954</v>
+        <v>12.891022347642592</v>
       </c>
       <c r="AP52" s="26">
-        <v>2.5906061961034585</v>
+        <v>2.7702371660819192</v>
       </c>
       <c r="AQ52" s="26">
-        <v>1.6330038916502745</v>
+        <v>1.8026469650137433</v>
       </c>
       <c r="AR52" s="24">
-        <v>424.22560124852299</v>
+        <v>743.67695930964112</v>
       </c>
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.35">
@@ -8387,8 +8420,12 @@
       <c r="D53" s="8">
         <v>44365</v>
       </c>
-      <c r="E53"/>
-      <c r="F53"/>
+      <c r="E53" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F53" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G53" s="11">
         <v>2.6</v>
       </c>
@@ -8407,68 +8444,68 @@
       </c>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="S53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="T53" s="21">
-        <v>44370</v>
+        <v>44385</v>
       </c>
       <c r="U53">
-        <f t="shared" si="0"/>
-        <v>33.43</v>
-      </c>
-      <c r="V53" s="31">
-        <v>32.360382080078097</v>
-      </c>
-      <c r="W53">
-        <v>32.260666666666665</v>
+        <f t="shared" ref="U53:U54" si="2">Z53-10</f>
+        <v>3</v>
+      </c>
+      <c r="V53" s="30">
+        <v>30.42</v>
+      </c>
+      <c r="W53" s="27">
+        <v>31.594000000000005</v>
       </c>
       <c r="X53">
-        <v>25.313998999999999</v>
-      </c>
-      <c r="Y53" s="31">
-        <v>7.3931336402893102</v>
+        <v>25.205998999999998</v>
+      </c>
+      <c r="Y53" s="30">
+        <v>23.1</v>
       </c>
       <c r="Z53">
-        <v>43.43</v>
+        <v>13</v>
       </c>
       <c r="AA53">
-        <v>2197.4481678057223</v>
+        <v>2047.9322125279912</v>
       </c>
       <c r="AB53">
-        <v>2059.7881861325218</v>
+        <v>1908.8065944810426</v>
       </c>
       <c r="AC53" s="25">
-        <v>7.3931336402893066</v>
+        <v>23.100000381469727</v>
       </c>
       <c r="AD53" s="24">
-        <v>43.430000305175781</v>
+        <v>13</v>
       </c>
       <c r="AE53" s="25">
-        <v>7.9933374668389687</v>
+        <v>7.7754059931814927</v>
       </c>
       <c r="AF53" s="24">
-        <v>429.89768855603711</v>
+        <v>736.92162229069584</v>
       </c>
       <c r="AG53" s="24">
-        <v>431.61670742411997</v>
+        <v>739.3351099685176</v>
       </c>
       <c r="AH53" s="24">
-        <v>1933.2692372177441</v>
+        <v>1775.7379634498423</v>
       </c>
       <c r="AI53" s="24">
-        <v>105.58782385905525</v>
+        <v>110.7001139566928</v>
       </c>
       <c r="AJ53" s="24">
-        <v>20.930916410049576</v>
+        <v>22.368540896525527</v>
       </c>
       <c r="AK53" s="24">
-        <v>51.952739075179501</v>
+        <v>47.90203231607822</v>
       </c>
       <c r="AL53" s="24">
-        <v>1.060873826975556</v>
+        <v>2.9091493392610532</v>
       </c>
       <c r="AM53" s="24">
         <v>0</v>
@@ -8477,16 +8514,16 @@
         <v>0</v>
       </c>
       <c r="AO53" s="25">
-        <v>14.180476579830543</v>
+        <v>13.006548811955195</v>
       </c>
       <c r="AP53" s="26">
-        <v>2.5345239544894178</v>
+        <v>2.7227588820335531</v>
       </c>
       <c r="AQ53" s="26">
-        <v>1.5976521199506819</v>
+        <v>1.7717922072878782</v>
       </c>
       <c r="AR53" s="24">
-        <v>435.96342452409897</v>
+        <v>760.16404204730134</v>
       </c>
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.35">
@@ -8498,8 +8535,12 @@
       <c r="D54" s="8">
         <v>44365</v>
       </c>
-      <c r="E54"/>
-      <c r="F54"/>
+      <c r="E54" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F54" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G54" s="11">
         <v>2.6</v>
       </c>
@@ -8518,68 +8559,68 @@
       </c>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="S54" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="T54" s="21">
-        <v>44394</v>
+        <v>44385</v>
       </c>
       <c r="U54">
-        <f t="shared" si="0"/>
-        <v>1.7799999999999994</v>
-      </c>
-      <c r="V54" s="32">
-        <v>30.396377563476602</v>
-      </c>
-      <c r="W54">
-        <v>30.894000000000002</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V54" s="30">
+        <v>30.42</v>
+      </c>
+      <c r="W54" s="27">
+        <v>31.727333333333334</v>
       </c>
       <c r="X54">
-        <v>25.100999999999999</v>
-      </c>
-      <c r="Y54" s="32">
-        <v>19.733684539794901</v>
+        <v>25.254999000000002</v>
+      </c>
+      <c r="Y54" s="30">
+        <v>23.1</v>
       </c>
       <c r="Z54">
-        <v>11.78</v>
+        <v>13</v>
       </c>
       <c r="AA54">
-        <v>2071.9797719486078</v>
+        <v>2055.9570409564244</v>
       </c>
       <c r="AB54">
-        <v>1857.9542207722689</v>
+        <v>1906.4163397215066</v>
       </c>
       <c r="AC54" s="25">
-        <v>19.733684539794922</v>
+        <v>23.100000381469727</v>
       </c>
       <c r="AD54" s="24">
-        <v>11.779999732971191</v>
+        <v>13</v>
       </c>
       <c r="AE54" s="25">
-        <v>8.0107959699931985</v>
+        <v>7.7995798973041666</v>
       </c>
       <c r="AF54" s="24">
-        <v>401.48036609076019</v>
+        <v>693.81836925441905</v>
       </c>
       <c r="AG54" s="24">
-        <v>402.85120396686534</v>
+        <v>696.09068972133218</v>
       </c>
       <c r="AH54" s="24">
-        <v>1688.8722964035433</v>
+        <v>1768.4406389020367</v>
       </c>
       <c r="AI54" s="24">
-        <v>155.67945252031691</v>
+        <v>116.93038664888498</v>
       </c>
       <c r="AJ54" s="24">
-        <v>13.402444914080435</v>
+        <v>21.045353364388451</v>
       </c>
       <c r="AK54" s="24">
-        <v>68.131966723672036</v>
+        <v>50.588267828949817</v>
       </c>
       <c r="AL54" s="24">
-        <v>3.6264777175050829</v>
+        <v>3.0835068333898472</v>
       </c>
       <c r="AM54" s="24">
         <v>0</v>
@@ -8588,16 +8629,16 @@
         <v>0</v>
       </c>
       <c r="AO54" s="25">
-        <v>10.881162549629217</v>
+        <v>12.656155899567201</v>
       </c>
       <c r="AP54" s="26">
-        <v>3.826068750820026</v>
+        <v>2.8731230172322695</v>
       </c>
       <c r="AQ54" s="26">
-        <v>2.4626349320108383</v>
+        <v>1.8703104717406649</v>
       </c>
       <c r="AR54" s="24">
-        <v>412.04044928387998</v>
+        <v>715.69985512971664</v>
       </c>
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.35">
@@ -8609,8 +8650,12 @@
       <c r="D55" s="8">
         <v>44385</v>
       </c>
-      <c r="E55"/>
-      <c r="F55"/>
+      <c r="E55" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F55" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G55" s="11">
         <v>1</v>
       </c>
@@ -8629,68 +8674,67 @@
       </c>
       <c r="Q55"/>
       <c r="R55" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="S55" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="T55" s="21">
-        <v>44394</v>
+        <v>44358</v>
       </c>
       <c r="U55">
-        <f t="shared" si="0"/>
-        <v>76.02</v>
-      </c>
-      <c r="V55" s="32">
-        <v>32.401954650878899</v>
-      </c>
-      <c r="W55">
-        <v>32.260666666666665</v>
+        <v>1</v>
+      </c>
+      <c r="V55" s="22">
+        <v>24.16</v>
+      </c>
+      <c r="W55" s="23">
+        <v>26.794</v>
       </c>
       <c r="X55">
-        <v>25.162001</v>
-      </c>
-      <c r="Y55" s="32">
-        <v>7.3073692321777299</v>
+        <v>25.100999999999999</v>
+      </c>
+      <c r="Y55" s="30">
+        <v>19.399999999999999</v>
       </c>
       <c r="Z55">
-        <v>86.02</v>
+        <v>11</v>
       </c>
       <c r="AA55">
-        <v>2196.7462580299784</v>
+        <v>1873.4572333427143</v>
       </c>
       <c r="AB55">
-        <v>2085.8967697253847</v>
+        <v>1855.2648878674406</v>
       </c>
       <c r="AC55" s="25">
-        <v>7.3073692321777344</v>
+        <v>19.399999618530273</v>
       </c>
       <c r="AD55" s="24">
-        <v>86.019996643066406</v>
+        <v>11</v>
       </c>
       <c r="AE55" s="25">
-        <v>7.9185252258409706</v>
+        <v>7.5045182123233669</v>
       </c>
       <c r="AF55" s="24">
-        <v>517.66124980698521</v>
+        <v>1370.6663413930294</v>
       </c>
       <c r="AG55" s="24">
-        <v>519.73354054620484</v>
+        <v>1375.3659457781243</v>
       </c>
       <c r="AH55" s="24">
-        <v>1970.1204535324223</v>
+        <v>1763.1961482314523</v>
       </c>
       <c r="AI55" s="24">
-        <v>90.497318397336841</v>
+        <v>44.841500950016638</v>
       </c>
       <c r="AJ55" s="24">
-        <v>25.278902613860062</v>
+        <v>47.227234306947707</v>
       </c>
       <c r="AK55" s="24">
-        <v>44.755435285061054</v>
+        <v>19.600642074643666</v>
       </c>
       <c r="AL55" s="24">
-        <v>0.88816241544023999</v>
+        <v>1.0093347814294578</v>
       </c>
       <c r="AM55" s="24">
         <v>0</v>
@@ -8699,16 +8743,16 @@
         <v>0</v>
       </c>
       <c r="AO55" s="25">
-        <v>15.362890465185451</v>
+        <v>17.579127651198117</v>
       </c>
       <c r="AP55" s="26">
-        <v>2.1545739800601793</v>
+        <v>1.1321325679826402</v>
       </c>
       <c r="AQ55" s="26">
-        <v>1.3586731610001321</v>
+        <v>0.71765513579823703</v>
       </c>
       <c r="AR55" s="24">
-        <v>524.93672293682334</v>
+        <v>1406.1505043887346</v>
       </c>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.35">
@@ -8720,8 +8764,12 @@
       <c r="D56" s="8">
         <v>44385</v>
       </c>
-      <c r="E56"/>
-      <c r="F56"/>
+      <c r="E56" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F56" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G56" s="11">
         <v>3</v>
       </c>
@@ -8740,68 +8788,67 @@
       </c>
       <c r="Q56"/>
       <c r="R56" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="S56" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="T56" s="21">
-        <v>44394</v>
+        <v>44358</v>
       </c>
       <c r="U56">
-        <f t="shared" si="0"/>
-        <v>26.340000000000003</v>
-      </c>
-      <c r="V56" s="32">
-        <v>31.973804473876999</v>
-      </c>
-      <c r="W56">
-        <v>31.560666666666673</v>
+        <v>1</v>
+      </c>
+      <c r="V56" s="22">
+        <v>24.16</v>
+      </c>
+      <c r="W56" s="23">
+        <v>26.827333333333332</v>
       </c>
       <c r="X56">
-        <v>25.186001000000001</v>
-      </c>
-      <c r="Y56" s="32">
-        <v>12.188024520874</v>
+        <v>25.124001</v>
+      </c>
+      <c r="Y56" s="30">
+        <v>19.399999999999999</v>
       </c>
       <c r="Z56">
-        <v>36.340000000000003</v>
+        <v>11</v>
       </c>
       <c r="AA56">
-        <v>2137.5307965738757</v>
+        <v>1856.1368118843377</v>
       </c>
       <c r="AB56">
-        <v>1947.0839245159696</v>
+        <v>1851.4811654395796</v>
       </c>
       <c r="AC56" s="25">
-        <v>12.188024520874023</v>
+        <v>19.399999618530273</v>
       </c>
       <c r="AD56" s="24">
-        <v>36.340000152587891</v>
+        <v>11</v>
       </c>
       <c r="AE56" s="25">
-        <v>8.0611390950417228</v>
+        <v>7.4510182219626708</v>
       </c>
       <c r="AF56" s="24">
-        <v>357.95779141590339</v>
+        <v>1546.029592053023</v>
       </c>
       <c r="AG56" s="24">
-        <v>359.30261215458489</v>
+        <v>1551.3304645052601</v>
       </c>
       <c r="AH56" s="24">
-        <v>1793.7185583014814</v>
+        <v>1758.6421580703379</v>
       </c>
       <c r="AI56" s="24">
-        <v>138.44475225084005</v>
+        <v>39.579146538820069</v>
       </c>
       <c r="AJ56" s="24">
-        <v>14.920665567435231</v>
+        <v>53.259848089239625</v>
       </c>
       <c r="AK56" s="24">
-        <v>64.933915965718313</v>
+        <v>17.479485384090523</v>
       </c>
       <c r="AL56" s="24">
-        <v>1.9976986002374093</v>
+        <v>0.89298538824510354</v>
       </c>
       <c r="AM56" s="24">
         <v>0</v>
@@ -8810,16 +8857,16 @@
         <v>0</v>
       </c>
       <c r="AO56" s="25">
-        <v>11.912934131848617</v>
+        <v>17.539776243230676</v>
       </c>
       <c r="AP56" s="26">
-        <v>3.3459715530886038</v>
+        <v>0.99905263176500081</v>
       </c>
       <c r="AQ56" s="26">
-        <v>2.1223405047069974</v>
+        <v>0.63338351787635461</v>
       </c>
       <c r="AR56" s="24">
-        <v>364.31601295442698</v>
+        <v>1586.0529602890679</v>
       </c>
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.35">
@@ -8831,8 +8878,12 @@
       <c r="D57" s="8">
         <v>44385</v>
       </c>
-      <c r="E57"/>
-      <c r="F57"/>
+      <c r="E57" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F57" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G57" s="11">
         <v>3</v>
       </c>
@@ -8851,68 +8902,67 @@
       </c>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="S57" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="T57" s="21">
-        <v>44394</v>
+        <v>44358</v>
       </c>
       <c r="U57">
-        <f t="shared" si="0"/>
-        <v>26.340000000000003</v>
-      </c>
-      <c r="V57" s="32">
-        <v>31.973804473876999</v>
-      </c>
-      <c r="W57">
-        <v>31.560666666666673</v>
+        <v>3</v>
+      </c>
+      <c r="V57" s="22">
+        <v>24.03</v>
+      </c>
+      <c r="W57" s="27">
+        <v>26.594000000000005</v>
       </c>
       <c r="X57">
-        <v>25.186001000000001</v>
-      </c>
-      <c r="Y57" s="32">
-        <v>12.188024520874</v>
+        <v>24.603000999999999</v>
+      </c>
+      <c r="Y57" s="30">
+        <v>19.399999999999999</v>
       </c>
       <c r="Z57">
-        <v>36.340000000000003</v>
+        <v>13</v>
       </c>
       <c r="AA57">
-        <v>2138.8239732334046</v>
+        <v>1849.0125252994944</v>
       </c>
       <c r="AB57">
-        <v>1950.2646118545363</v>
+        <v>1850.3521514893309</v>
       </c>
       <c r="AC57" s="25">
-        <v>12.188024520874023</v>
+        <v>19.399999618530273</v>
       </c>
       <c r="AD57" s="24">
-        <v>36.340000152587891</v>
+        <v>13</v>
       </c>
       <c r="AE57" s="25">
-        <v>8.0566293524669081</v>
+        <v>7.4296821694680517</v>
       </c>
       <c r="AF57" s="24">
-        <v>362.52235184992287</v>
+        <v>1624.3796506136898</v>
       </c>
       <c r="AG57" s="24">
-        <v>363.88432130189358</v>
+        <v>1629.9491619517482</v>
       </c>
       <c r="AH57" s="24">
-        <v>1797.825466032629</v>
+        <v>1756.9208071167004</v>
       </c>
       <c r="AI57" s="24">
-        <v>137.32828050564024</v>
+        <v>37.401406927034493</v>
       </c>
       <c r="AJ57" s="24">
-        <v>15.110929004442854</v>
+        <v>56.029942863585141</v>
       </c>
       <c r="AK57" s="24">
-        <v>64.373822387139171</v>
+        <v>16.480783784283247</v>
       </c>
       <c r="AL57" s="24">
-        <v>1.9770616989824856</v>
+        <v>0.84606365252014859</v>
       </c>
       <c r="AM57" s="24">
         <v>0</v>
@@ -8921,16 +8971,16 @@
         <v>0</v>
       </c>
       <c r="AO57" s="25">
-        <v>11.977136412673348</v>
+        <v>17.506913297402132</v>
       </c>
       <c r="AP57" s="26">
-        <v>3.3189883512082083</v>
+        <v>0.94523288509602266</v>
       </c>
       <c r="AQ57" s="26">
-        <v>2.1052251343612491</v>
+        <v>0.59869420105413129</v>
       </c>
       <c r="AR57" s="24">
-        <v>368.96165134557288</v>
+        <v>1666.4360674779966</v>
       </c>
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.35">
@@ -8942,8 +8992,12 @@
       <c r="D58" s="15">
         <v>44410</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F58" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G58" s="14">
         <v>1</v>
       </c>
@@ -8962,7 +9016,7 @@
       </c>
       <c r="Q58" s="16"/>
       <c r="R58" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S58" s="35" t="s">
         <v>37</v>
@@ -9054,8 +9108,12 @@
       <c r="D59" s="15">
         <v>44410</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="14"/>
+      <c r="E59" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F59" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G59" s="14">
         <v>1</v>
       </c>
@@ -9074,7 +9132,7 @@
       </c>
       <c r="Q59" s="16"/>
       <c r="R59" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S59" s="35" t="s">
         <v>38</v>
@@ -9098,7 +9156,7 @@
         <v>23.06</v>
       </c>
       <c r="Z59">
-        <f t="shared" ref="Z59:Z99" si="1">U59+10</f>
+        <f t="shared" ref="Z59:Z99" si="3">U59+10</f>
         <v>11</v>
       </c>
       <c r="AA59">
@@ -9166,8 +9224,12 @@
       <c r="D60" s="15">
         <v>44410</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="14"/>
+      <c r="E60" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F60" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G60" s="14">
         <v>3.5</v>
       </c>
@@ -9186,7 +9248,7 @@
       </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S60" s="35" t="s">
         <v>39</v>
@@ -9210,7 +9272,7 @@
         <v>23.01</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
       <c r="AA60">
@@ -9278,8 +9340,12 @@
       <c r="D61" s="15">
         <v>44410</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="14"/>
+      <c r="E61" s="43">
+        <v>41.645800000000001</v>
+      </c>
+      <c r="F61" s="43">
+        <v>-70.636799999999994</v>
+      </c>
       <c r="G61" s="14">
         <v>1.5</v>
       </c>
@@ -9298,7 +9364,7 @@
       </c>
       <c r="Q61" s="16"/>
       <c r="R61" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S61" s="35" t="s">
         <v>40</v>
@@ -9322,7 +9388,7 @@
         <v>24.05</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
       <c r="AA61">
@@ -9390,8 +9456,12 @@
       <c r="D62" s="15">
         <v>44410</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="14"/>
+      <c r="E62" s="43">
+        <v>41.645800000000001</v>
+      </c>
+      <c r="F62" s="43">
+        <v>-70.636799999999994</v>
+      </c>
       <c r="G62" s="14">
         <v>1.5</v>
       </c>
@@ -9410,7 +9480,7 @@
       </c>
       <c r="Q62" s="16"/>
       <c r="R62" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S62" s="35" t="s">
         <v>41</v>
@@ -9434,7 +9504,7 @@
         <v>24.05</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
       <c r="AA62">
@@ -9546,7 +9616,7 @@
         <v>0.58209687471389804</v>
       </c>
       <c r="R63" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S63" s="35" t="s">
         <v>21</v>
@@ -9570,7 +9640,7 @@
         <v>11.33318233</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43.17585373</v>
       </c>
       <c r="AA63">
@@ -9682,7 +9752,7 @@
         <v>0.64398223161697399</v>
       </c>
       <c r="R64" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S64" s="35" t="s">
         <v>22</v>
@@ -9706,7 +9776,7 @@
         <v>12.47792244</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.691530230000001</v>
       </c>
       <c r="AA64">
@@ -9818,7 +9888,7 @@
         <v>0.82218140363693204</v>
       </c>
       <c r="R65" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S65" s="35" t="s">
         <v>23</v>
@@ -9842,7 +9912,7 @@
         <v>19.84506798</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.937930822</v>
       </c>
       <c r="AA65">
@@ -9954,7 +10024,7 @@
         <v>1.0510553121566799</v>
       </c>
       <c r="R66" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S66" s="35" t="s">
         <v>24</v>
@@ -9978,7 +10048,7 @@
         <v>9.9355182650000007</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58.223529820000003</v>
       </c>
       <c r="AA66">
@@ -10090,7 +10160,7 @@
         <v>0.44686642289161699</v>
       </c>
       <c r="R67" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S67" s="35" t="s">
         <v>25</v>
@@ -10114,7 +10184,7 @@
         <v>11.792284009999999</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.371717449999998</v>
       </c>
       <c r="AA67">
@@ -10226,7 +10296,7 @@
         <v>0.55397784709930398</v>
       </c>
       <c r="R68" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S68" s="35" t="s">
         <v>26</v>
@@ -10250,7 +10320,7 @@
         <v>20.02334595</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.850839019</v>
       </c>
       <c r="AA68">
@@ -10362,7 +10432,7 @@
         <v>2.7450935840606698</v>
       </c>
       <c r="R69" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S69" s="35" t="s">
         <v>27</v>
@@ -10386,7 +10456,7 @@
         <v>8.0615997309999994</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87.170326230000001</v>
       </c>
       <c r="AA69">
@@ -10498,7 +10568,7 @@
         <v>0.41436186432838401</v>
       </c>
       <c r="R70" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S70" s="35" t="s">
         <v>28</v>
@@ -10522,7 +10592,7 @@
         <v>11.228799820000001</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.942649840000001</v>
       </c>
       <c r="AA70">
@@ -10580,7 +10650,7 @@
         <v>310.1495871167798</v>
       </c>
       <c r="AS70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:45" x14ac:dyDescent="0.35">
@@ -10636,7 +10706,7 @@
         <v>0.41436186432838401</v>
       </c>
       <c r="R71" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S71" s="35" t="s">
         <v>29</v>
@@ -10660,7 +10730,7 @@
         <v>11.228799820000001</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.942649840000001</v>
       </c>
       <c r="AA71">
@@ -10772,7 +10842,7 @@
         <v>0.94765430688857999</v>
       </c>
       <c r="R72" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S72" s="35" t="s">
         <v>30</v>
@@ -10796,7 +10866,7 @@
         <v>21.073835370000001</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.641818404</v>
       </c>
       <c r="AA72">
@@ -10908,7 +10978,7 @@
         <v>0.76626563072204601</v>
       </c>
       <c r="R73" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S73" s="35" t="s">
         <v>32</v>
@@ -10932,7 +11002,7 @@
         <v>18.02477837</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.170286179999998</v>
       </c>
       <c r="AA73">
@@ -11044,7 +11114,7 @@
         <v>0.76626563072204601</v>
       </c>
       <c r="R74" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S74" s="35" t="s">
         <v>33</v>
@@ -11068,7 +11138,7 @@
         <v>18.02477837</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.170286179999998</v>
       </c>
       <c r="AA74">
@@ -11180,7 +11250,7 @@
         <v>1.14576828479767</v>
       </c>
       <c r="R75" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S75" s="35" t="s">
         <v>34</v>
@@ -11204,7 +11274,7 @@
         <v>20.963537219999999</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.580853939000001</v>
       </c>
       <c r="AA75">
@@ -11316,7 +11386,7 @@
         <v>0.95709723234176602</v>
       </c>
       <c r="R76" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S76" s="35" t="s">
         <v>21</v>
@@ -11340,7 +11410,7 @@
         <v>13.46919441</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.0484066</v>
       </c>
       <c r="AA76">
@@ -11452,7 +11522,7 @@
         <v>0.95374906063079801</v>
       </c>
       <c r="R77" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S77" s="35" t="s">
         <v>22</v>
@@ -11476,7 +11546,7 @@
         <v>13.444745060000001</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.497636799999999</v>
       </c>
       <c r="AA77">
@@ -11588,7 +11658,7 @@
         <v>1.22088122367859</v>
       </c>
       <c r="R78" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S78" s="35" t="s">
         <v>23</v>
@@ -11612,7 +11682,7 @@
         <v>13.536548610000001</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.903704524</v>
       </c>
       <c r="AA78">
@@ -11724,7 +11794,7 @@
         <v>1.2843606472015401</v>
       </c>
       <c r="R79" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S79" s="35" t="s">
         <v>24</v>
@@ -11748,7 +11818,7 @@
         <v>12.41397381</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60.427764889999999</v>
       </c>
       <c r="AA79">
@@ -11860,7 +11930,7 @@
         <v>0.77425265312194802</v>
       </c>
       <c r="R80" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S80" s="35" t="s">
         <v>25</v>
@@ -11884,7 +11954,7 @@
         <v>13.358578680000001</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.153587340000001</v>
       </c>
       <c r="AA80">
@@ -11996,7 +12066,7 @@
         <v>0.83272987604141202</v>
       </c>
       <c r="R81" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S81" s="35" t="s">
         <v>26</v>
@@ -12020,7 +12090,7 @@
         <v>13.433835029999999</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.677265167</v>
       </c>
       <c r="AA81">
@@ -12132,7 +12202,7 @@
         <v>1.46848320960999</v>
       </c>
       <c r="R82" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S82" s="35" t="s">
         <v>27</v>
@@ -12156,7 +12226,7 @@
         <v>11.15664864</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87.321960450000006</v>
       </c>
       <c r="AA82">
@@ -12268,7 +12338,7 @@
         <v>0.66651415824890103</v>
       </c>
       <c r="R83" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S83" s="35" t="s">
         <v>28</v>
@@ -12292,7 +12362,7 @@
         <v>13.2706356</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52.452388759999998</v>
       </c>
       <c r="AA83">
@@ -12404,7 +12474,7 @@
         <v>0.66651415824890103</v>
       </c>
       <c r="R84" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S84" s="35" t="s">
         <v>29</v>
@@ -12428,7 +12498,7 @@
         <v>13.2706356</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52.452388759999998</v>
       </c>
       <c r="AA84">
@@ -12540,7 +12610,7 @@
         <v>1.03378677368164</v>
       </c>
       <c r="R85" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S85" s="35" t="s">
         <v>30</v>
@@ -12564,7 +12634,7 @@
         <v>13.34041691</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.775969743999999</v>
       </c>
       <c r="AA85">
@@ -12676,7 +12746,7 @@
         <v>1.6045005321502701</v>
       </c>
       <c r="R86" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S86" s="35" t="s">
         <v>31</v>
@@ -12700,7 +12770,7 @@
         <v>13.402496340000001</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40.769699099999997</v>
       </c>
       <c r="AA86">
@@ -12812,7 +12882,7 @@
         <v>1.5591059923171999</v>
       </c>
       <c r="R87" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S87" s="35" t="s">
         <v>32</v>
@@ -12836,7 +12906,7 @@
         <v>13.375646590000001</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.17248154</v>
       </c>
       <c r="AA87">
@@ -12948,7 +13018,7 @@
         <v>1.5591059923171999</v>
       </c>
       <c r="R88" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S88" s="35" t="s">
         <v>33</v>
@@ -12972,7 +13042,7 @@
         <v>13.375646590000001</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.17248154</v>
       </c>
       <c r="AA88">
@@ -13084,7 +13154,7 @@
         <v>1.5567532777786299</v>
       </c>
       <c r="R89" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S89" s="35" t="s">
         <v>34</v>
@@ -13108,7 +13178,7 @@
         <v>13.361315729999999</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.552433014</v>
       </c>
       <c r="AA89">
@@ -13176,8 +13246,12 @@
       <c r="D90" s="17">
         <v>44467.544444444444</v>
       </c>
-      <c r="E90"/>
-      <c r="F90"/>
+      <c r="E90" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F90" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G90">
         <v>1</v>
       </c>
@@ -13198,7 +13272,7 @@
       </c>
       <c r="Q90"/>
       <c r="R90" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S90" s="35" t="s">
         <v>36</v>
@@ -13222,7 +13296,7 @@
         <v>21.11</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="AA90">
@@ -13280,7 +13354,7 @@
         <v>722.66906783286015</v>
       </c>
       <c r="AS90" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:45" x14ac:dyDescent="0.35">
@@ -13292,8 +13366,12 @@
       <c r="D91" s="17">
         <v>44467.544444444444</v>
       </c>
-      <c r="E91"/>
-      <c r="F91"/>
+      <c r="E91" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F91" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G91">
         <v>3.15</v>
       </c>
@@ -13314,7 +13392,7 @@
       </c>
       <c r="Q91"/>
       <c r="R91" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S91" s="35" t="s">
         <v>35</v>
@@ -13338,7 +13416,7 @@
         <v>21.15</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.15</v>
       </c>
       <c r="AA91">
@@ -13406,8 +13484,12 @@
       <c r="D92" s="17">
         <v>44467.544444444444</v>
       </c>
-      <c r="E92"/>
-      <c r="F92"/>
+      <c r="E92" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F92" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G92">
         <v>3.15</v>
       </c>
@@ -13428,7 +13510,7 @@
       </c>
       <c r="Q92"/>
       <c r="R92" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S92" s="35" t="s">
         <v>42</v>
@@ -13452,7 +13534,7 @@
         <v>21.15</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.15</v>
       </c>
       <c r="AA92">
@@ -13510,7 +13592,7 @@
         <v>588.23527526423334</v>
       </c>
       <c r="AS92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:45" x14ac:dyDescent="0.35">
@@ -13522,8 +13604,12 @@
       <c r="D93" s="13">
         <v>44467.397222222222</v>
       </c>
-      <c r="E93"/>
-      <c r="F93"/>
+      <c r="E93" s="43">
+        <v>41.645800000000001</v>
+      </c>
+      <c r="F93" s="43">
+        <v>-70.636799999999994</v>
+      </c>
       <c r="G93">
         <v>1.5</v>
       </c>
@@ -13544,7 +13630,7 @@
       </c>
       <c r="Q93"/>
       <c r="R93" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S93" s="35" t="s">
         <v>40</v>
@@ -13568,7 +13654,7 @@
         <v>21.1</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
       <c r="AA93">
@@ -13636,8 +13722,12 @@
       <c r="D94" s="13">
         <v>44467.397222222222</v>
       </c>
-      <c r="E94"/>
-      <c r="F94"/>
+      <c r="E94" s="43">
+        <v>41.645800000000001</v>
+      </c>
+      <c r="F94" s="43">
+        <v>-70.636799999999994</v>
+      </c>
       <c r="G94">
         <v>1.5</v>
       </c>
@@ -13658,7 +13748,7 @@
       </c>
       <c r="Q94"/>
       <c r="R94" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S94" s="35" t="s">
         <v>41</v>
@@ -13682,7 +13772,7 @@
         <v>21.1</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
       <c r="AA94">
@@ -13750,8 +13840,12 @@
       <c r="D95" s="13">
         <v>44540.416666666664</v>
       </c>
-      <c r="E95"/>
-      <c r="F95"/>
+      <c r="E95" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F95" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G95">
         <v>1</v>
       </c>
@@ -13772,7 +13866,7 @@
       </c>
       <c r="Q95"/>
       <c r="R95" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S95" s="35" t="s">
         <v>36</v>
@@ -13796,7 +13890,7 @@
         <v>5.28</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="AA95">
@@ -13864,8 +13958,12 @@
       <c r="D96" s="13">
         <v>44540.416666666664</v>
       </c>
-      <c r="E96"/>
-      <c r="F96"/>
+      <c r="E96" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F96" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G96">
         <v>2.7</v>
       </c>
@@ -13886,7 +13984,7 @@
       </c>
       <c r="Q96"/>
       <c r="R96" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S96" s="35" t="s">
         <v>35</v>
@@ -13910,7 +14008,7 @@
         <v>5.28</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.7</v>
       </c>
       <c r="AA96">
@@ -13978,8 +14076,12 @@
       <c r="D97" s="13">
         <v>44540.416666666664</v>
       </c>
-      <c r="E97"/>
-      <c r="F97"/>
+      <c r="E97" s="5">
+        <v>41.657930999999998</v>
+      </c>
+      <c r="F97" s="5">
+        <v>-70.115249000000006</v>
+      </c>
       <c r="G97">
         <v>2.7</v>
       </c>
@@ -14000,7 +14102,7 @@
       </c>
       <c r="Q97"/>
       <c r="R97" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S97" s="35" t="s">
         <v>42</v>
@@ -14024,7 +14126,7 @@
         <v>5.28</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.7</v>
       </c>
       <c r="AA97">
@@ -14092,8 +14194,12 @@
       <c r="D98" s="13">
         <v>44540.499305555553</v>
       </c>
-      <c r="E98"/>
-      <c r="F98"/>
+      <c r="E98" s="43">
+        <v>41.645800000000001</v>
+      </c>
+      <c r="F98" s="43">
+        <v>-70.636799999999994</v>
+      </c>
       <c r="G98">
         <v>1.5</v>
       </c>
@@ -14114,7 +14220,7 @@
       </c>
       <c r="Q98"/>
       <c r="R98" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S98" s="35" t="s">
         <v>40</v>
@@ -14138,7 +14244,7 @@
         <v>6.4</v>
       </c>
       <c r="Z98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
       <c r="AA98">
@@ -14206,8 +14312,12 @@
       <c r="D99" s="13">
         <v>44540.499305555553</v>
       </c>
-      <c r="E99"/>
-      <c r="F99"/>
+      <c r="E99" s="43">
+        <v>41.645800000000001</v>
+      </c>
+      <c r="F99" s="43">
+        <v>-70.636799999999994</v>
+      </c>
       <c r="G99">
         <v>1.5</v>
       </c>
@@ -14228,7 +14338,7 @@
       </c>
       <c r="Q99"/>
       <c r="R99" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S99" s="35" t="s">
         <v>41</v>
@@ -14252,7 +14362,7 @@
         <v>6.4</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
       <c r="AA99">
